--- a/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
+++ b/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB36818-A16A-274B-8C3C-0438AC6190A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441EFE8-ECDB-2441-9899-F040541E61CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GENROU" sheetId="8" r:id="rId8"/>
     <sheet name="TGOV1N" sheetId="9" r:id="rId9"/>
-    <sheet name="IEEEG1TS2" sheetId="10" r:id="rId10"/>
+    <sheet name="IEEEG1TS" sheetId="10" r:id="rId10"/>
     <sheet name="GAST" sheetId="11" r:id="rId11"/>
     <sheet name="SEXS" sheetId="12" r:id="rId12"/>
     <sheet name="REGCA1" sheetId="13" r:id="rId13"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1075">
   <si>
     <t>idx</t>
   </si>
@@ -2476,33 +2476,6 @@
     <t>IEEEG1_11</t>
   </si>
   <si>
-    <t>IEEEG1_12</t>
-  </si>
-  <si>
-    <t>IEEEG1_13</t>
-  </si>
-  <si>
-    <t>IEEEG1_14</t>
-  </si>
-  <si>
-    <t>IEEEG1_15</t>
-  </si>
-  <si>
-    <t>IEEEG1_16</t>
-  </si>
-  <si>
-    <t>IEEEG1_17</t>
-  </si>
-  <si>
-    <t>IEEEG1_18</t>
-  </si>
-  <si>
-    <t>IEEEG1_19</t>
-  </si>
-  <si>
-    <t>IEEEG1_20</t>
-  </si>
-  <si>
     <t>KT</t>
   </si>
   <si>
@@ -2545,21 +2518,6 @@
     <t>GAST_12</t>
   </si>
   <si>
-    <t>GAST_13</t>
-  </si>
-  <si>
-    <t>GAST_14</t>
-  </si>
-  <si>
-    <t>GAST_15</t>
-  </si>
-  <si>
-    <t>GAST_16</t>
-  </si>
-  <si>
-    <t>GAST_17</t>
-  </si>
-  <si>
     <t>TATB</t>
   </si>
   <si>
@@ -2800,6 +2758,48 @@
     <t>REGCA_11</t>
   </si>
   <si>
+    <t>REGCA_12</t>
+  </si>
+  <si>
+    <t>REGCA_13</t>
+  </si>
+  <si>
+    <t>REGCA_14</t>
+  </si>
+  <si>
+    <t>REGCA_15</t>
+  </si>
+  <si>
+    <t>REGCA_16</t>
+  </si>
+  <si>
+    <t>REGCA_17</t>
+  </si>
+  <si>
+    <t>REGCA_18</t>
+  </si>
+  <si>
+    <t>REGCA_19</t>
+  </si>
+  <si>
+    <t>REGCA_20</t>
+  </si>
+  <si>
+    <t>REGCA_21</t>
+  </si>
+  <si>
+    <t>REGCA_22</t>
+  </si>
+  <si>
+    <t>REGCA_23</t>
+  </si>
+  <si>
+    <t>REGCA_24</t>
+  </si>
+  <si>
+    <t>REGCA_25</t>
+  </si>
+  <si>
     <t>reg</t>
   </si>
   <si>
@@ -2974,6 +2974,48 @@
     <t>REECA1_11</t>
   </si>
   <si>
+    <t>REECA1_12</t>
+  </si>
+  <si>
+    <t>REECA1_13</t>
+  </si>
+  <si>
+    <t>REECA1_14</t>
+  </si>
+  <si>
+    <t>REECA1_15</t>
+  </si>
+  <si>
+    <t>REECA1_16</t>
+  </si>
+  <si>
+    <t>REECA1_17</t>
+  </si>
+  <si>
+    <t>REECA1_18</t>
+  </si>
+  <si>
+    <t>REECA1_19</t>
+  </si>
+  <si>
+    <t>REECA1_20</t>
+  </si>
+  <si>
+    <t>REECA1_21</t>
+  </si>
+  <si>
+    <t>REECA1_22</t>
+  </si>
+  <si>
+    <t>REECA1_23</t>
+  </si>
+  <si>
+    <t>REECA1_24</t>
+  </si>
+  <si>
+    <t>REECA1_25</t>
+  </si>
+  <si>
     <t>ree</t>
   </si>
   <si>
@@ -3094,6 +3136,48 @@
     <t>REPCA1_11</t>
   </si>
   <si>
+    <t>REPCA1_12</t>
+  </si>
+  <si>
+    <t>REPCA1_13</t>
+  </si>
+  <si>
+    <t>REPCA1_14</t>
+  </si>
+  <si>
+    <t>REPCA1_15</t>
+  </si>
+  <si>
+    <t>REPCA1_16</t>
+  </si>
+  <si>
+    <t>REPCA1_17</t>
+  </si>
+  <si>
+    <t>REPCA1_18</t>
+  </si>
+  <si>
+    <t>REPCA1_19</t>
+  </si>
+  <si>
+    <t>REPCA1_20</t>
+  </si>
+  <si>
+    <t>REPCA1_21</t>
+  </si>
+  <si>
+    <t>REPCA1_22</t>
+  </si>
+  <si>
+    <t>REPCA1_23</t>
+  </si>
+  <si>
+    <t>REPCA1_24</t>
+  </si>
+  <si>
+    <t>REPCA1_25</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -3131,6 +3215,48 @@
   </si>
   <si>
     <t>WTDS_11</t>
+  </si>
+  <si>
+    <t>WTDS_12</t>
+  </si>
+  <si>
+    <t>WTDS_13</t>
+  </si>
+  <si>
+    <t>WTDS_14</t>
+  </si>
+  <si>
+    <t>WTDS_15</t>
+  </si>
+  <si>
+    <t>WTDS_16</t>
+  </si>
+  <si>
+    <t>WTDS_17</t>
+  </si>
+  <si>
+    <t>WTDS_18</t>
+  </si>
+  <si>
+    <t>WTDS_19</t>
+  </si>
+  <si>
+    <t>WTDS_20</t>
+  </si>
+  <si>
+    <t>WTDS_21</t>
+  </si>
+  <si>
+    <t>WTDS_22</t>
+  </si>
+  <si>
+    <t>WTDS_23</t>
+  </si>
+  <si>
+    <t>WTDS_24</t>
+  </si>
+  <si>
+    <t>WTDS_25</t>
   </si>
   <si>
     <t>CE</t>
@@ -3208,7 +3334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -12375,11 +12501,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12470,7 +12596,7 @@
         <v>801</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>1032</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -12556,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -12642,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -12728,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -12814,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -12900,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -12986,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -13003,7 +13129,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13015,10 +13141,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.29399199999999998</v>
+        <v>0.41585</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -13045,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13072,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -13089,7 +13215,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13101,7 +13227,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.385075</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13158,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -13175,7 +13301,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13187,7 +13313,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.20569599999999999</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13244,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -13261,7 +13387,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13273,7 +13399,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.41585</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13330,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -13347,7 +13473,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13362,7 +13488,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>0.71988200000000002</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13389,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>9.0000900000000001</v>
+        <v>2.39961</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13416,781 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>813</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>813</v>
-      </c>
-      <c r="E13" t="s">
-        <v>688</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>0.1</v>
-      </c>
-      <c r="M13">
-        <v>0.1</v>
-      </c>
-      <c r="N13">
-        <v>-0.1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0.4</v>
-      </c>
-      <c r="R13">
-        <v>0.5</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="U13">
-        <v>0.5</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.05</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>814</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>814</v>
-      </c>
-      <c r="E14" t="s">
-        <v>696</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-      <c r="J14">
-        <v>0.5</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>0.1</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>-0.1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0.4</v>
-      </c>
-      <c r="R14">
-        <v>0.5</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="U14">
-        <v>0.5</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0.5</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0.05</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>815</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>815</v>
-      </c>
-      <c r="E15" t="s">
-        <v>707</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>0.71988200000000002</v>
-      </c>
-      <c r="L15">
-        <v>0.1</v>
-      </c>
-      <c r="M15">
-        <v>0.1</v>
-      </c>
-      <c r="N15">
-        <v>-0.1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0.4</v>
-      </c>
-      <c r="R15">
-        <v>0.5</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>2.39961</v>
-      </c>
-      <c r="U15">
-        <v>0.5</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0.05</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>816</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>816</v>
-      </c>
-      <c r="E16" t="s">
-        <v>708</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>0.1</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <v>-0.1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.4</v>
-      </c>
-      <c r="R16">
-        <v>0.5</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="U16">
-        <v>0.5</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0.05</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>817</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>817</v>
-      </c>
-      <c r="E17" t="s">
-        <v>709</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>0.5</v>
-      </c>
-      <c r="K17">
-        <v>2.1</v>
-      </c>
-      <c r="L17">
-        <v>0.1</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>-0.1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0.4</v>
-      </c>
-      <c r="R17">
-        <v>0.5</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="U17">
-        <v>0.5</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0.5</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0.05</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>818</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E18" t="s">
-        <v>710</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>25</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>2.1</v>
-      </c>
-      <c r="L18">
-        <v>0.1</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>-0.1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0.4</v>
-      </c>
-      <c r="R18">
-        <v>0.5</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>0.5</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.5</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0.05</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>819</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>819</v>
-      </c>
-      <c r="E19" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>0.5</v>
-      </c>
-      <c r="K19">
-        <v>2.7096100000000001</v>
-      </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
-      <c r="M19">
-        <v>0.1</v>
-      </c>
-      <c r="N19">
-        <v>-0.1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0.4</v>
-      </c>
-      <c r="R19">
-        <v>0.5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>8.1289099999999994</v>
-      </c>
-      <c r="U19">
-        <v>0.5</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0.05</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>820</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>820</v>
-      </c>
-      <c r="E20" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <v>0.5</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>0.1</v>
-      </c>
-      <c r="M20">
-        <v>0.1</v>
-      </c>
-      <c r="N20">
-        <v>-0.1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0.4</v>
-      </c>
-      <c r="R20">
-        <v>0.5</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>9.0000900000000001</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0.05</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>821</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>821</v>
-      </c>
-      <c r="E21" t="s">
-        <v>721</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>0.5</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-      <c r="M21">
-        <v>0.1</v>
-      </c>
-      <c r="N21">
-        <v>-0.1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0.4</v>
-      </c>
-      <c r="R21">
-        <v>0.5</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-      <c r="U21">
-        <v>0.5</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0.05</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -14200,7 +13552,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14241,10 +13593,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -14264,13 +13616,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -14314,13 +13666,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -14364,13 +13716,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -14414,13 +13766,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -14464,16 +13816,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -14500,10 +13852,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>1.1187400000000001</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>3.3562400000000001</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -14514,16 +13866,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14532,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -14564,16 +13916,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="E8" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -14582,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -14600,10 +13952,10 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>6.3000600000000002</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -14614,16 +13966,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14650,10 +14002,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>6.3000600000000002</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -14664,16 +14016,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="E10" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14700,10 +14052,10 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>9.0000900000000001</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -14714,16 +14066,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14732,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -14764,16 +14116,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="E12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14782,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -14800,10 +14152,10 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
-        <v>9.0000900000000001</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -14814,16 +14166,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="E13" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14850,262 +14202,12 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>1.51816</v>
       </c>
       <c r="O13">
-        <v>6.3000600000000002</v>
+        <v>5.0605399999999996</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>836</v>
-      </c>
-      <c r="E14" t="s">
-        <v>717</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.04</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>2.1</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>837</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>837</v>
-      </c>
-      <c r="E15" t="s">
-        <v>718</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0.05</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.1</v>
-      </c>
-      <c r="N15">
-        <v>2.1</v>
-      </c>
-      <c r="O15">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>838</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>838</v>
-      </c>
-      <c r="E16" t="s">
-        <v>719</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.05</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <v>1.51816</v>
-      </c>
-      <c r="O16">
-        <v>5.0605399999999996</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>839</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>839</v>
-      </c>
-      <c r="E17" t="s">
-        <v>723</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0.05</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>2.1</v>
-      </c>
-      <c r="O17">
-        <v>6.3000600000000002</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>840</v>
-      </c>
-      <c r="E18" t="s">
-        <v>724</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0.04</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>0.91889200000000004</v>
-      </c>
-      <c r="O18">
-        <v>2.7566999999999999</v>
-      </c>
-      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -15142,22 +14244,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -15165,13 +14267,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -15200,13 +14302,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -15235,13 +14337,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -15270,13 +14372,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -15305,13 +14407,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -15340,13 +14442,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -15375,13 +14477,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -15410,13 +14512,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -15445,13 +14547,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -15480,13 +14582,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -15515,13 +14617,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -15550,13 +14652,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -15585,13 +14687,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -15620,13 +14722,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -15655,13 +14757,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -15690,13 +14792,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -15725,13 +14827,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -15760,13 +14862,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -15795,13 +14897,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -15830,13 +14932,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -15865,13 +14967,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15900,13 +15002,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15935,13 +15037,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15970,13 +15072,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -16005,13 +15107,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -16040,13 +15142,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -16075,13 +15177,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -16110,13 +15212,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -16145,13 +15247,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -16180,13 +15282,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -16215,13 +15317,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -16250,13 +15352,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -16285,13 +15387,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -16320,13 +15422,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -16355,13 +15457,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -16390,13 +15492,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -16425,13 +15527,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -16460,13 +15562,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -16495,13 +15597,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -16530,13 +15632,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -16565,13 +15667,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -16600,13 +15702,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -16635,13 +15737,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -16670,13 +15772,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -16705,13 +15807,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -16740,13 +15842,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -16775,13 +15877,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -16810,13 +15912,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -16845,13 +15947,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -16882,7 +15984,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16914,49 +16016,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16970,13 +16072,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -17044,22 +16146,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>118.8</v>
+        <v>33.5</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -17118,22 +16220,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>237.6</v>
+        <v>33.5</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -17192,22 +16294,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="E5">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>2.04</v>
+        <v>33.5</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -17266,22 +16368,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="E6">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>3.84</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -17340,22 +16442,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="E7">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>156.06</v>
+        <v>118.8</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -17414,22 +16516,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>156.06</v>
+        <v>237.6</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -17488,22 +16590,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E9">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>156.06</v>
+        <v>2.04</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -17562,22 +16664,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="E10">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>535.67999999999995</v>
+        <v>180</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -17636,22 +16738,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E11">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>535.67999999999995</v>
+        <v>156.06</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -17710,22 +16812,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="E12">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>120.6</v>
+        <v>156.06</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -17776,6 +16878,1042 @@
         <v>1</v>
       </c>
       <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>907</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>907</v>
+      </c>
+      <c r="E13">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>156.06</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1.2</v>
+      </c>
+      <c r="O13">
+        <v>0.8</v>
+      </c>
+      <c r="P13">
+        <v>0.4</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
+        <v>0.1</v>
+      </c>
+      <c r="S13">
+        <v>0.7</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>908</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14">
+        <v>135</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>-1.5</v>
+      </c>
+      <c r="R14">
+        <v>0.1</v>
+      </c>
+      <c r="S14">
+        <v>0.7</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>909</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>909</v>
+      </c>
+      <c r="E15">
+        <v>136</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="H15">
+        <v>0.1</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1.2</v>
+      </c>
+      <c r="O15">
+        <v>0.8</v>
+      </c>
+      <c r="P15">
+        <v>0.4</v>
+      </c>
+      <c r="Q15">
+        <v>-1.5</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <v>0.7</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E16">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>120.6</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>0.8</v>
+      </c>
+      <c r="P16">
+        <v>0.4</v>
+      </c>
+      <c r="Q16">
+        <v>-1.5</v>
+      </c>
+      <c r="R16">
+        <v>0.1</v>
+      </c>
+      <c r="S16">
+        <v>0.7</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>911</v>
+      </c>
+      <c r="E17">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>92.67</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1.2</v>
+      </c>
+      <c r="O17">
+        <v>0.8</v>
+      </c>
+      <c r="P17">
+        <v>0.4</v>
+      </c>
+      <c r="Q17">
+        <v>-1.5</v>
+      </c>
+      <c r="R17">
+        <v>0.1</v>
+      </c>
+      <c r="S17">
+        <v>0.7</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>-1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E18">
+        <v>153</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>92.67</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1.2</v>
+      </c>
+      <c r="O18">
+        <v>0.8</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+      <c r="Q18">
+        <v>-1.5</v>
+      </c>
+      <c r="R18">
+        <v>0.1</v>
+      </c>
+      <c r="S18">
+        <v>0.7</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>913</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E19">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>92.67</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1.2</v>
+      </c>
+      <c r="O19">
+        <v>0.8</v>
+      </c>
+      <c r="P19">
+        <v>0.4</v>
+      </c>
+      <c r="Q19">
+        <v>-1.5</v>
+      </c>
+      <c r="R19">
+        <v>0.1</v>
+      </c>
+      <c r="S19">
+        <v>0.7</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>914</v>
+      </c>
+      <c r="E20">
+        <v>155</v>
+      </c>
+      <c r="F20">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>92.67</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1.2</v>
+      </c>
+      <c r="O20">
+        <v>0.8</v>
+      </c>
+      <c r="P20">
+        <v>0.4</v>
+      </c>
+      <c r="Q20">
+        <v>-1.5</v>
+      </c>
+      <c r="R20">
+        <v>0.1</v>
+      </c>
+      <c r="S20">
+        <v>0.7</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>915</v>
+      </c>
+      <c r="E21">
+        <v>161</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>166.32</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1.2</v>
+      </c>
+      <c r="O21">
+        <v>0.8</v>
+      </c>
+      <c r="P21">
+        <v>0.4</v>
+      </c>
+      <c r="Q21">
+        <v>-1.5</v>
+      </c>
+      <c r="R21">
+        <v>0.1</v>
+      </c>
+      <c r="S21">
+        <v>0.7</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>-1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>916</v>
+      </c>
+      <c r="E22">
+        <v>165</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>31.2</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1.2</v>
+      </c>
+      <c r="O22">
+        <v>0.8</v>
+      </c>
+      <c r="P22">
+        <v>0.4</v>
+      </c>
+      <c r="Q22">
+        <v>-1.5</v>
+      </c>
+      <c r="R22">
+        <v>0.1</v>
+      </c>
+      <c r="S22">
+        <v>0.7</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>917</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E23">
+        <v>182</v>
+      </c>
+      <c r="F23">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1.2</v>
+      </c>
+      <c r="O23">
+        <v>0.8</v>
+      </c>
+      <c r="P23">
+        <v>0.4</v>
+      </c>
+      <c r="Q23">
+        <v>-1.5</v>
+      </c>
+      <c r="R23">
+        <v>0.1</v>
+      </c>
+      <c r="S23">
+        <v>0.7</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>-1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>918</v>
+      </c>
+      <c r="E24">
+        <v>183</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>31.92</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1.2</v>
+      </c>
+      <c r="O24">
+        <v>0.8</v>
+      </c>
+      <c r="P24">
+        <v>0.4</v>
+      </c>
+      <c r="Q24">
+        <v>-1.5</v>
+      </c>
+      <c r="R24">
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <v>0.7</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>919</v>
+      </c>
+      <c r="E25">
+        <v>196</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1.2</v>
+      </c>
+      <c r="O25">
+        <v>0.8</v>
+      </c>
+      <c r="P25">
+        <v>0.4</v>
+      </c>
+      <c r="Q25">
+        <v>-1.5</v>
+      </c>
+      <c r="R25">
+        <v>0.1</v>
+      </c>
+      <c r="S25">
+        <v>0.7</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>920</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>920</v>
+      </c>
+      <c r="E26">
+        <v>197</v>
+      </c>
+      <c r="F26">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1.2</v>
+      </c>
+      <c r="O26">
+        <v>0.8</v>
+      </c>
+      <c r="P26">
+        <v>0.4</v>
+      </c>
+      <c r="Q26">
+        <v>-1.5</v>
+      </c>
+      <c r="R26">
+        <v>0.1</v>
+      </c>
+      <c r="S26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>-1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>1</v>
       </c>
     </row>
@@ -17786,7 +17924,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17979,7 +18117,7 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18146,7 +18284,7 @@
         <v>969</v>
       </c>
       <c r="E3" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18313,7 +18451,7 @@
         <v>970</v>
       </c>
       <c r="E4" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18480,7 +18618,7 @@
         <v>971</v>
       </c>
       <c r="E5" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18647,7 +18785,7 @@
         <v>972</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18814,7 +18952,7 @@
         <v>973</v>
       </c>
       <c r="E7" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -18981,7 +19119,7 @@
         <v>974</v>
       </c>
       <c r="E8" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19148,7 +19286,7 @@
         <v>975</v>
       </c>
       <c r="E9" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19315,7 +19453,7 @@
         <v>976</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19482,7 +19620,7 @@
         <v>977</v>
       </c>
       <c r="E11" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19649,7 +19787,7 @@
         <v>978</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19799,6 +19937,2344 @@
         <v>1</v>
       </c>
       <c r="BD12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>979</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>979</v>
+      </c>
+      <c r="E13" t="s">
+        <v>907</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.8</v>
+      </c>
+      <c r="M13">
+        <v>1.2</v>
+      </c>
+      <c r="N13">
+        <v>0.02</v>
+      </c>
+      <c r="O13">
+        <v>-0.1</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>999</v>
+      </c>
+      <c r="S13">
+        <v>-999</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>-2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0.02</v>
+      </c>
+      <c r="Y13">
+        <v>999</v>
+      </c>
+      <c r="Z13">
+        <v>-999</v>
+      </c>
+      <c r="AA13">
+        <v>999</v>
+      </c>
+      <c r="AB13">
+        <v>-999</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0.02</v>
+      </c>
+      <c r="AI13">
+        <v>999</v>
+      </c>
+      <c r="AJ13">
+        <v>-999</v>
+      </c>
+      <c r="AK13">
+        <v>999</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+      <c r="AN13">
+        <v>0.02</v>
+      </c>
+      <c r="AO13">
+        <v>0.2</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0.4</v>
+      </c>
+      <c r="AR13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>0.8</v>
+      </c>
+      <c r="AT13">
+        <v>8</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>10</v>
+      </c>
+      <c r="AW13">
+        <v>0.2</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>0.4</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>0.8</v>
+      </c>
+      <c r="BB13">
+        <v>8</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>980</v>
+      </c>
+      <c r="E14" t="s">
+        <v>908</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>1.2</v>
+      </c>
+      <c r="N14">
+        <v>0.02</v>
+      </c>
+      <c r="O14">
+        <v>-0.1</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>999</v>
+      </c>
+      <c r="S14">
+        <v>-999</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>-2</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0.02</v>
+      </c>
+      <c r="Y14">
+        <v>999</v>
+      </c>
+      <c r="Z14">
+        <v>-999</v>
+      </c>
+      <c r="AA14">
+        <v>999</v>
+      </c>
+      <c r="AB14">
+        <v>-999</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0.02</v>
+      </c>
+      <c r="AI14">
+        <v>999</v>
+      </c>
+      <c r="AJ14">
+        <v>-999</v>
+      </c>
+      <c r="AK14">
+        <v>999</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+      <c r="AN14">
+        <v>0.02</v>
+      </c>
+      <c r="AO14">
+        <v>0.2</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0.4</v>
+      </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
+      <c r="AS14">
+        <v>0.8</v>
+      </c>
+      <c r="AT14">
+        <v>8</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>10</v>
+      </c>
+      <c r="AW14">
+        <v>0.2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>0.4</v>
+      </c>
+      <c r="AZ14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>0.8</v>
+      </c>
+      <c r="BB14">
+        <v>8</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>981</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>981</v>
+      </c>
+      <c r="E15" t="s">
+        <v>909</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.8</v>
+      </c>
+      <c r="M15">
+        <v>1.2</v>
+      </c>
+      <c r="N15">
+        <v>0.02</v>
+      </c>
+      <c r="O15">
+        <v>-0.1</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>999</v>
+      </c>
+      <c r="S15">
+        <v>-999</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>-2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.02</v>
+      </c>
+      <c r="Y15">
+        <v>999</v>
+      </c>
+      <c r="Z15">
+        <v>-999</v>
+      </c>
+      <c r="AA15">
+        <v>999</v>
+      </c>
+      <c r="AB15">
+        <v>-999</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0.02</v>
+      </c>
+      <c r="AI15">
+        <v>999</v>
+      </c>
+      <c r="AJ15">
+        <v>-999</v>
+      </c>
+      <c r="AK15">
+        <v>999</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+      <c r="AN15">
+        <v>0.02</v>
+      </c>
+      <c r="AO15">
+        <v>0.2</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>0.4</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>0.8</v>
+      </c>
+      <c r="AT15">
+        <v>8</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
+        <v>0.2</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>0.4</v>
+      </c>
+      <c r="AZ15">
+        <v>4</v>
+      </c>
+      <c r="BA15">
+        <v>0.8</v>
+      </c>
+      <c r="BB15">
+        <v>8</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>982</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>982</v>
+      </c>
+      <c r="E16" t="s">
+        <v>910</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>1.2</v>
+      </c>
+      <c r="N16">
+        <v>0.02</v>
+      </c>
+      <c r="O16">
+        <v>-0.1</v>
+      </c>
+      <c r="P16">
+        <v>0.1</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>999</v>
+      </c>
+      <c r="S16">
+        <v>-999</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>-2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0.02</v>
+      </c>
+      <c r="Y16">
+        <v>999</v>
+      </c>
+      <c r="Z16">
+        <v>-999</v>
+      </c>
+      <c r="AA16">
+        <v>999</v>
+      </c>
+      <c r="AB16">
+        <v>-999</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0.02</v>
+      </c>
+      <c r="AI16">
+        <v>999</v>
+      </c>
+      <c r="AJ16">
+        <v>-999</v>
+      </c>
+      <c r="AK16">
+        <v>999</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>0.02</v>
+      </c>
+      <c r="AO16">
+        <v>0.2</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0.4</v>
+      </c>
+      <c r="AR16">
+        <v>4</v>
+      </c>
+      <c r="AS16">
+        <v>0.8</v>
+      </c>
+      <c r="AT16">
+        <v>8</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>10</v>
+      </c>
+      <c r="AW16">
+        <v>0.2</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>0.4</v>
+      </c>
+      <c r="AZ16">
+        <v>4</v>
+      </c>
+      <c r="BA16">
+        <v>0.8</v>
+      </c>
+      <c r="BB16">
+        <v>8</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>983</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>983</v>
+      </c>
+      <c r="E17" t="s">
+        <v>911</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>1.2</v>
+      </c>
+      <c r="N17">
+        <v>0.02</v>
+      </c>
+      <c r="O17">
+        <v>-0.1</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>999</v>
+      </c>
+      <c r="S17">
+        <v>-999</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>-2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0.02</v>
+      </c>
+      <c r="Y17">
+        <v>999</v>
+      </c>
+      <c r="Z17">
+        <v>-999</v>
+      </c>
+      <c r="AA17">
+        <v>999</v>
+      </c>
+      <c r="AB17">
+        <v>-999</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>0.02</v>
+      </c>
+      <c r="AI17">
+        <v>999</v>
+      </c>
+      <c r="AJ17">
+        <v>-999</v>
+      </c>
+      <c r="AK17">
+        <v>999</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+      <c r="AN17">
+        <v>0.02</v>
+      </c>
+      <c r="AO17">
+        <v>0.2</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>0.4</v>
+      </c>
+      <c r="AR17">
+        <v>4</v>
+      </c>
+      <c r="AS17">
+        <v>0.8</v>
+      </c>
+      <c r="AT17">
+        <v>8</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>10</v>
+      </c>
+      <c r="AW17">
+        <v>0.2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>0.4</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>0.8</v>
+      </c>
+      <c r="BB17">
+        <v>8</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>984</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>984</v>
+      </c>
+      <c r="E18" t="s">
+        <v>912</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.8</v>
+      </c>
+      <c r="M18">
+        <v>1.2</v>
+      </c>
+      <c r="N18">
+        <v>0.02</v>
+      </c>
+      <c r="O18">
+        <v>-0.1</v>
+      </c>
+      <c r="P18">
+        <v>0.1</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>999</v>
+      </c>
+      <c r="S18">
+        <v>-999</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>-2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0.02</v>
+      </c>
+      <c r="Y18">
+        <v>999</v>
+      </c>
+      <c r="Z18">
+        <v>-999</v>
+      </c>
+      <c r="AA18">
+        <v>999</v>
+      </c>
+      <c r="AB18">
+        <v>-999</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0.02</v>
+      </c>
+      <c r="AI18">
+        <v>999</v>
+      </c>
+      <c r="AJ18">
+        <v>-999</v>
+      </c>
+      <c r="AK18">
+        <v>999</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+      <c r="AN18">
+        <v>0.02</v>
+      </c>
+      <c r="AO18">
+        <v>0.2</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0.4</v>
+      </c>
+      <c r="AR18">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>0.8</v>
+      </c>
+      <c r="AT18">
+        <v>8</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>10</v>
+      </c>
+      <c r="AW18">
+        <v>0.2</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>0.4</v>
+      </c>
+      <c r="AZ18">
+        <v>4</v>
+      </c>
+      <c r="BA18">
+        <v>0.8</v>
+      </c>
+      <c r="BB18">
+        <v>8</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>985</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>985</v>
+      </c>
+      <c r="E19" t="s">
+        <v>913</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <v>1.2</v>
+      </c>
+      <c r="N19">
+        <v>0.02</v>
+      </c>
+      <c r="O19">
+        <v>-0.1</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>999</v>
+      </c>
+      <c r="S19">
+        <v>-999</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>-2</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.02</v>
+      </c>
+      <c r="Y19">
+        <v>999</v>
+      </c>
+      <c r="Z19">
+        <v>-999</v>
+      </c>
+      <c r="AA19">
+        <v>999</v>
+      </c>
+      <c r="AB19">
+        <v>-999</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0.02</v>
+      </c>
+      <c r="AI19">
+        <v>999</v>
+      </c>
+      <c r="AJ19">
+        <v>-999</v>
+      </c>
+      <c r="AK19">
+        <v>999</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>0.02</v>
+      </c>
+      <c r="AO19">
+        <v>0.2</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.4</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>0.8</v>
+      </c>
+      <c r="AT19">
+        <v>8</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>10</v>
+      </c>
+      <c r="AW19">
+        <v>0.2</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>0.4</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>0.8</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>986</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>986</v>
+      </c>
+      <c r="E20" t="s">
+        <v>914</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.8</v>
+      </c>
+      <c r="M20">
+        <v>1.2</v>
+      </c>
+      <c r="N20">
+        <v>0.02</v>
+      </c>
+      <c r="O20">
+        <v>-0.1</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
+        <v>999</v>
+      </c>
+      <c r="S20">
+        <v>-999</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>-2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0.02</v>
+      </c>
+      <c r="Y20">
+        <v>999</v>
+      </c>
+      <c r="Z20">
+        <v>-999</v>
+      </c>
+      <c r="AA20">
+        <v>999</v>
+      </c>
+      <c r="AB20">
+        <v>-999</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0.02</v>
+      </c>
+      <c r="AI20">
+        <v>999</v>
+      </c>
+      <c r="AJ20">
+        <v>-999</v>
+      </c>
+      <c r="AK20">
+        <v>999</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+      <c r="AN20">
+        <v>0.02</v>
+      </c>
+      <c r="AO20">
+        <v>0.2</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.4</v>
+      </c>
+      <c r="AR20">
+        <v>4</v>
+      </c>
+      <c r="AS20">
+        <v>0.8</v>
+      </c>
+      <c r="AT20">
+        <v>8</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>10</v>
+      </c>
+      <c r="AW20">
+        <v>0.2</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>0.4</v>
+      </c>
+      <c r="AZ20">
+        <v>4</v>
+      </c>
+      <c r="BA20">
+        <v>0.8</v>
+      </c>
+      <c r="BB20">
+        <v>8</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>987</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>987</v>
+      </c>
+      <c r="E21" t="s">
+        <v>915</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.8</v>
+      </c>
+      <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21">
+        <v>0.02</v>
+      </c>
+      <c r="O21">
+        <v>-0.1</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>999</v>
+      </c>
+      <c r="S21">
+        <v>-999</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>-2</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0.02</v>
+      </c>
+      <c r="Y21">
+        <v>999</v>
+      </c>
+      <c r="Z21">
+        <v>-999</v>
+      </c>
+      <c r="AA21">
+        <v>999</v>
+      </c>
+      <c r="AB21">
+        <v>-999</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0.02</v>
+      </c>
+      <c r="AI21">
+        <v>999</v>
+      </c>
+      <c r="AJ21">
+        <v>-999</v>
+      </c>
+      <c r="AK21">
+        <v>999</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+      <c r="AN21">
+        <v>0.02</v>
+      </c>
+      <c r="AO21">
+        <v>0.2</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>0.4</v>
+      </c>
+      <c r="AR21">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>0.8</v>
+      </c>
+      <c r="AT21">
+        <v>8</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>10</v>
+      </c>
+      <c r="AW21">
+        <v>0.2</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>0.4</v>
+      </c>
+      <c r="AZ21">
+        <v>4</v>
+      </c>
+      <c r="BA21">
+        <v>0.8</v>
+      </c>
+      <c r="BB21">
+        <v>8</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>988</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>988</v>
+      </c>
+      <c r="E22" t="s">
+        <v>916</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.8</v>
+      </c>
+      <c r="M22">
+        <v>1.2</v>
+      </c>
+      <c r="N22">
+        <v>0.02</v>
+      </c>
+      <c r="O22">
+        <v>-0.1</v>
+      </c>
+      <c r="P22">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>999</v>
+      </c>
+      <c r="S22">
+        <v>-999</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>-2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0.02</v>
+      </c>
+      <c r="Y22">
+        <v>999</v>
+      </c>
+      <c r="Z22">
+        <v>-999</v>
+      </c>
+      <c r="AA22">
+        <v>999</v>
+      </c>
+      <c r="AB22">
+        <v>-999</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0.02</v>
+      </c>
+      <c r="AI22">
+        <v>999</v>
+      </c>
+      <c r="AJ22">
+        <v>-999</v>
+      </c>
+      <c r="AK22">
+        <v>999</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+      <c r="AN22">
+        <v>0.02</v>
+      </c>
+      <c r="AO22">
+        <v>0.2</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>0.4</v>
+      </c>
+      <c r="AR22">
+        <v>4</v>
+      </c>
+      <c r="AS22">
+        <v>0.8</v>
+      </c>
+      <c r="AT22">
+        <v>8</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>10</v>
+      </c>
+      <c r="AW22">
+        <v>0.2</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>0.4</v>
+      </c>
+      <c r="AZ22">
+        <v>4</v>
+      </c>
+      <c r="BA22">
+        <v>0.8</v>
+      </c>
+      <c r="BB22">
+        <v>8</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>989</v>
+      </c>
+      <c r="E23" t="s">
+        <v>917</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.8</v>
+      </c>
+      <c r="M23">
+        <v>1.2</v>
+      </c>
+      <c r="N23">
+        <v>0.02</v>
+      </c>
+      <c r="O23">
+        <v>-0.1</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>999</v>
+      </c>
+      <c r="S23">
+        <v>-999</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>-2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.02</v>
+      </c>
+      <c r="Y23">
+        <v>999</v>
+      </c>
+      <c r="Z23">
+        <v>-999</v>
+      </c>
+      <c r="AA23">
+        <v>999</v>
+      </c>
+      <c r="AB23">
+        <v>-999</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0.02</v>
+      </c>
+      <c r="AI23">
+        <v>999</v>
+      </c>
+      <c r="AJ23">
+        <v>-999</v>
+      </c>
+      <c r="AK23">
+        <v>999</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+      <c r="AN23">
+        <v>0.02</v>
+      </c>
+      <c r="AO23">
+        <v>0.2</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>0.4</v>
+      </c>
+      <c r="AR23">
+        <v>4</v>
+      </c>
+      <c r="AS23">
+        <v>0.8</v>
+      </c>
+      <c r="AT23">
+        <v>8</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>10</v>
+      </c>
+      <c r="AW23">
+        <v>0.2</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>0.4</v>
+      </c>
+      <c r="AZ23">
+        <v>4</v>
+      </c>
+      <c r="BA23">
+        <v>0.8</v>
+      </c>
+      <c r="BB23">
+        <v>8</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>990</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>990</v>
+      </c>
+      <c r="E24" t="s">
+        <v>918</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.8</v>
+      </c>
+      <c r="M24">
+        <v>1.2</v>
+      </c>
+      <c r="N24">
+        <v>0.02</v>
+      </c>
+      <c r="O24">
+        <v>-0.1</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <v>999</v>
+      </c>
+      <c r="S24">
+        <v>-999</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>-2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0.02</v>
+      </c>
+      <c r="Y24">
+        <v>999</v>
+      </c>
+      <c r="Z24">
+        <v>-999</v>
+      </c>
+      <c r="AA24">
+        <v>999</v>
+      </c>
+      <c r="AB24">
+        <v>-999</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0.02</v>
+      </c>
+      <c r="AI24">
+        <v>999</v>
+      </c>
+      <c r="AJ24">
+        <v>-999</v>
+      </c>
+      <c r="AK24">
+        <v>999</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+      <c r="AN24">
+        <v>0.02</v>
+      </c>
+      <c r="AO24">
+        <v>0.2</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>0.4</v>
+      </c>
+      <c r="AR24">
+        <v>4</v>
+      </c>
+      <c r="AS24">
+        <v>0.8</v>
+      </c>
+      <c r="AT24">
+        <v>8</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>10</v>
+      </c>
+      <c r="AW24">
+        <v>0.2</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>0.4</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>0.8</v>
+      </c>
+      <c r="BB24">
+        <v>8</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>991</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>991</v>
+      </c>
+      <c r="E25" t="s">
+        <v>919</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.8</v>
+      </c>
+      <c r="M25">
+        <v>1.2</v>
+      </c>
+      <c r="N25">
+        <v>0.02</v>
+      </c>
+      <c r="O25">
+        <v>-0.1</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>999</v>
+      </c>
+      <c r="S25">
+        <v>-999</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>-2</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0.02</v>
+      </c>
+      <c r="Y25">
+        <v>999</v>
+      </c>
+      <c r="Z25">
+        <v>-999</v>
+      </c>
+      <c r="AA25">
+        <v>999</v>
+      </c>
+      <c r="AB25">
+        <v>-999</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0.02</v>
+      </c>
+      <c r="AI25">
+        <v>999</v>
+      </c>
+      <c r="AJ25">
+        <v>-999</v>
+      </c>
+      <c r="AK25">
+        <v>999</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>10</v>
+      </c>
+      <c r="AN25">
+        <v>0.02</v>
+      </c>
+      <c r="AO25">
+        <v>0.2</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>0.4</v>
+      </c>
+      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>0.8</v>
+      </c>
+      <c r="AT25">
+        <v>8</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>10</v>
+      </c>
+      <c r="AW25">
+        <v>0.2</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>0.4</v>
+      </c>
+      <c r="AZ25">
+        <v>4</v>
+      </c>
+      <c r="BA25">
+        <v>0.8</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>992</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>992</v>
+      </c>
+      <c r="E26" t="s">
+        <v>920</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0.8</v>
+      </c>
+      <c r="M26">
+        <v>1.2</v>
+      </c>
+      <c r="N26">
+        <v>0.02</v>
+      </c>
+      <c r="O26">
+        <v>-0.1</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>999</v>
+      </c>
+      <c r="S26">
+        <v>-999</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>-2</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.02</v>
+      </c>
+      <c r="Y26">
+        <v>999</v>
+      </c>
+      <c r="Z26">
+        <v>-999</v>
+      </c>
+      <c r="AA26">
+        <v>999</v>
+      </c>
+      <c r="AB26">
+        <v>-999</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0.02</v>
+      </c>
+      <c r="AI26">
+        <v>999</v>
+      </c>
+      <c r="AJ26">
+        <v>-999</v>
+      </c>
+      <c r="AK26">
+        <v>999</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>10</v>
+      </c>
+      <c r="AN26">
+        <v>0.02</v>
+      </c>
+      <c r="AO26">
+        <v>0.2</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0.4</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <v>0.8</v>
+      </c>
+      <c r="AT26">
+        <v>8</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>10</v>
+      </c>
+      <c r="AW26">
+        <v>0.2</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>0.4</v>
+      </c>
+      <c r="AZ26">
+        <v>4</v>
+      </c>
+      <c r="BA26">
+        <v>0.8</v>
+      </c>
+      <c r="BB26">
+        <v>8</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
         <v>12</v>
       </c>
     </row>
@@ -19809,7 +22285,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19832,61 +22308,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>930</v>
@@ -19895,46 +22371,46 @@
         <v>931</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>939</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -19942,13 +22418,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -20049,19 +22525,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -20156,19 +22632,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
       </c>
       <c r="F4" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -20263,19 +22739,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
       </c>
       <c r="F5" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -20370,19 +22846,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -20477,19 +22953,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
       </c>
       <c r="F7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -20584,19 +23060,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
       </c>
       <c r="F8" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -20691,19 +23167,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
       </c>
       <c r="F9" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -20798,19 +23274,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
       </c>
       <c r="F10" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -20905,19 +23381,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
       </c>
       <c r="F11" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -21012,19 +23488,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
       </c>
       <c r="F12" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -21111,6 +23587,1504 @@
         <v>10</v>
       </c>
       <c r="AM12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.02</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>999</v>
+      </c>
+      <c r="W13">
+        <v>-999</v>
+      </c>
+      <c r="X13">
+        <v>-0.1</v>
+      </c>
+      <c r="Y13">
+        <v>0.1</v>
+      </c>
+      <c r="Z13">
+        <v>999</v>
+      </c>
+      <c r="AA13">
+        <v>-999</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13">
+        <v>0.02</v>
+      </c>
+      <c r="AE13">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF13">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG13">
+        <v>0.05</v>
+      </c>
+      <c r="AH13">
+        <v>-0.05</v>
+      </c>
+      <c r="AI13">
+        <v>999</v>
+      </c>
+      <c r="AJ13">
+        <v>-999</v>
+      </c>
+      <c r="AK13">
+        <v>0.02</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E14" t="s">
+        <v>980</v>
+      </c>
+      <c r="F14" t="s">
+        <v>628</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.02</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.8</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>999</v>
+      </c>
+      <c r="W14">
+        <v>-999</v>
+      </c>
+      <c r="X14">
+        <v>-0.1</v>
+      </c>
+      <c r="Y14">
+        <v>0.1</v>
+      </c>
+      <c r="Z14">
+        <v>999</v>
+      </c>
+      <c r="AA14">
+        <v>-999</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0.1</v>
+      </c>
+      <c r="AD14">
+        <v>0.02</v>
+      </c>
+      <c r="AE14">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF14">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG14">
+        <v>0.05</v>
+      </c>
+      <c r="AH14">
+        <v>-0.05</v>
+      </c>
+      <c r="AI14">
+        <v>999</v>
+      </c>
+      <c r="AJ14">
+        <v>-999</v>
+      </c>
+      <c r="AK14">
+        <v>0.02</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E15" t="s">
+        <v>981</v>
+      </c>
+      <c r="F15" t="s">
+        <v>629</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.02</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.8</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>999</v>
+      </c>
+      <c r="W15">
+        <v>-999</v>
+      </c>
+      <c r="X15">
+        <v>-0.1</v>
+      </c>
+      <c r="Y15">
+        <v>0.1</v>
+      </c>
+      <c r="Z15">
+        <v>999</v>
+      </c>
+      <c r="AA15">
+        <v>-999</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
+      </c>
+      <c r="AD15">
+        <v>0.02</v>
+      </c>
+      <c r="AE15">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF15">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG15">
+        <v>0.05</v>
+      </c>
+      <c r="AH15">
+        <v>-0.05</v>
+      </c>
+      <c r="AI15">
+        <v>999</v>
+      </c>
+      <c r="AJ15">
+        <v>-999</v>
+      </c>
+      <c r="AK15">
+        <v>0.02</v>
+      </c>
+      <c r="AL15">
+        <v>10</v>
+      </c>
+      <c r="AM15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E16" t="s">
+        <v>982</v>
+      </c>
+      <c r="F16" t="s">
+        <v>630</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.02</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>999</v>
+      </c>
+      <c r="W16">
+        <v>-999</v>
+      </c>
+      <c r="X16">
+        <v>-0.1</v>
+      </c>
+      <c r="Y16">
+        <v>0.1</v>
+      </c>
+      <c r="Z16">
+        <v>999</v>
+      </c>
+      <c r="AA16">
+        <v>-999</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0.1</v>
+      </c>
+      <c r="AD16">
+        <v>0.02</v>
+      </c>
+      <c r="AE16">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF16">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG16">
+        <v>0.05</v>
+      </c>
+      <c r="AH16">
+        <v>-0.05</v>
+      </c>
+      <c r="AI16">
+        <v>999</v>
+      </c>
+      <c r="AJ16">
+        <v>-999</v>
+      </c>
+      <c r="AK16">
+        <v>0.02</v>
+      </c>
+      <c r="AL16">
+        <v>10</v>
+      </c>
+      <c r="AM16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E17" t="s">
+        <v>983</v>
+      </c>
+      <c r="F17" t="s">
+        <v>633</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.02</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0.1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>999</v>
+      </c>
+      <c r="W17">
+        <v>-999</v>
+      </c>
+      <c r="X17">
+        <v>-0.1</v>
+      </c>
+      <c r="Y17">
+        <v>0.1</v>
+      </c>
+      <c r="Z17">
+        <v>999</v>
+      </c>
+      <c r="AA17">
+        <v>-999</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0.1</v>
+      </c>
+      <c r="AD17">
+        <v>0.02</v>
+      </c>
+      <c r="AE17">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF17">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG17">
+        <v>0.05</v>
+      </c>
+      <c r="AH17">
+        <v>-0.05</v>
+      </c>
+      <c r="AI17">
+        <v>999</v>
+      </c>
+      <c r="AJ17">
+        <v>-999</v>
+      </c>
+      <c r="AK17">
+        <v>0.02</v>
+      </c>
+      <c r="AL17">
+        <v>10</v>
+      </c>
+      <c r="AM17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F18" t="s">
+        <v>634</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.02</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0.1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>999</v>
+      </c>
+      <c r="W18">
+        <v>-999</v>
+      </c>
+      <c r="X18">
+        <v>-0.1</v>
+      </c>
+      <c r="Y18">
+        <v>0.1</v>
+      </c>
+      <c r="Z18">
+        <v>999</v>
+      </c>
+      <c r="AA18">
+        <v>-999</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>0.1</v>
+      </c>
+      <c r="AD18">
+        <v>0.02</v>
+      </c>
+      <c r="AE18">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF18">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG18">
+        <v>0.05</v>
+      </c>
+      <c r="AH18">
+        <v>-0.05</v>
+      </c>
+      <c r="AI18">
+        <v>999</v>
+      </c>
+      <c r="AJ18">
+        <v>-999</v>
+      </c>
+      <c r="AK18">
+        <v>0.02</v>
+      </c>
+      <c r="AL18">
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" t="s">
+        <v>985</v>
+      </c>
+      <c r="F19" t="s">
+        <v>635</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.02</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0.8</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>999</v>
+      </c>
+      <c r="W19">
+        <v>-999</v>
+      </c>
+      <c r="X19">
+        <v>-0.1</v>
+      </c>
+      <c r="Y19">
+        <v>0.1</v>
+      </c>
+      <c r="Z19">
+        <v>999</v>
+      </c>
+      <c r="AA19">
+        <v>-999</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>0.1</v>
+      </c>
+      <c r="AD19">
+        <v>0.02</v>
+      </c>
+      <c r="AE19">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF19">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG19">
+        <v>0.05</v>
+      </c>
+      <c r="AH19">
+        <v>-0.05</v>
+      </c>
+      <c r="AI19">
+        <v>999</v>
+      </c>
+      <c r="AJ19">
+        <v>-999</v>
+      </c>
+      <c r="AK19">
+        <v>0.02</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E20" t="s">
+        <v>986</v>
+      </c>
+      <c r="F20" t="s">
+        <v>636</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.02</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0.1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0.8</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>999</v>
+      </c>
+      <c r="W20">
+        <v>-999</v>
+      </c>
+      <c r="X20">
+        <v>-0.1</v>
+      </c>
+      <c r="Y20">
+        <v>0.1</v>
+      </c>
+      <c r="Z20">
+        <v>999</v>
+      </c>
+      <c r="AA20">
+        <v>-999</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0.1</v>
+      </c>
+      <c r="AD20">
+        <v>0.02</v>
+      </c>
+      <c r="AE20">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF20">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG20">
+        <v>0.05</v>
+      </c>
+      <c r="AH20">
+        <v>-0.05</v>
+      </c>
+      <c r="AI20">
+        <v>999</v>
+      </c>
+      <c r="AJ20">
+        <v>-999</v>
+      </c>
+      <c r="AK20">
+        <v>0.02</v>
+      </c>
+      <c r="AL20">
+        <v>10</v>
+      </c>
+      <c r="AM20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E21" t="s">
+        <v>987</v>
+      </c>
+      <c r="F21" t="s">
+        <v>638</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.02</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.8</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>999</v>
+      </c>
+      <c r="W21">
+        <v>-999</v>
+      </c>
+      <c r="X21">
+        <v>-0.1</v>
+      </c>
+      <c r="Y21">
+        <v>0.1</v>
+      </c>
+      <c r="Z21">
+        <v>999</v>
+      </c>
+      <c r="AA21">
+        <v>-999</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>0.1</v>
+      </c>
+      <c r="AD21">
+        <v>0.02</v>
+      </c>
+      <c r="AE21">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF21">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG21">
+        <v>0.05</v>
+      </c>
+      <c r="AH21">
+        <v>-0.05</v>
+      </c>
+      <c r="AI21">
+        <v>999</v>
+      </c>
+      <c r="AJ21">
+        <v>-999</v>
+      </c>
+      <c r="AK21">
+        <v>0.02</v>
+      </c>
+      <c r="AL21">
+        <v>10</v>
+      </c>
+      <c r="AM21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" t="s">
+        <v>988</v>
+      </c>
+      <c r="F22" t="s">
+        <v>640</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.02</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0.8</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>999</v>
+      </c>
+      <c r="W22">
+        <v>-999</v>
+      </c>
+      <c r="X22">
+        <v>-0.1</v>
+      </c>
+      <c r="Y22">
+        <v>0.1</v>
+      </c>
+      <c r="Z22">
+        <v>999</v>
+      </c>
+      <c r="AA22">
+        <v>-999</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0.1</v>
+      </c>
+      <c r="AD22">
+        <v>0.02</v>
+      </c>
+      <c r="AE22">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF22">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG22">
+        <v>0.05</v>
+      </c>
+      <c r="AH22">
+        <v>-0.05</v>
+      </c>
+      <c r="AI22">
+        <v>999</v>
+      </c>
+      <c r="AJ22">
+        <v>-999</v>
+      </c>
+      <c r="AK22">
+        <v>0.02</v>
+      </c>
+      <c r="AL22">
+        <v>10</v>
+      </c>
+      <c r="AM22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E23" t="s">
+        <v>989</v>
+      </c>
+      <c r="F23" t="s">
+        <v>647</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.02</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0.1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0.8</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>999</v>
+      </c>
+      <c r="W23">
+        <v>-999</v>
+      </c>
+      <c r="X23">
+        <v>-0.1</v>
+      </c>
+      <c r="Y23">
+        <v>0.1</v>
+      </c>
+      <c r="Z23">
+        <v>999</v>
+      </c>
+      <c r="AA23">
+        <v>-999</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>0.1</v>
+      </c>
+      <c r="AD23">
+        <v>0.02</v>
+      </c>
+      <c r="AE23">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF23">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG23">
+        <v>0.05</v>
+      </c>
+      <c r="AH23">
+        <v>-0.05</v>
+      </c>
+      <c r="AI23">
+        <v>999</v>
+      </c>
+      <c r="AJ23">
+        <v>-999</v>
+      </c>
+      <c r="AK23">
+        <v>0.02</v>
+      </c>
+      <c r="AL23">
+        <v>10</v>
+      </c>
+      <c r="AM23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E24" t="s">
+        <v>990</v>
+      </c>
+      <c r="F24" t="s">
+        <v>648</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.02</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0.8</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>999</v>
+      </c>
+      <c r="W24">
+        <v>-999</v>
+      </c>
+      <c r="X24">
+        <v>-0.1</v>
+      </c>
+      <c r="Y24">
+        <v>0.1</v>
+      </c>
+      <c r="Z24">
+        <v>999</v>
+      </c>
+      <c r="AA24">
+        <v>-999</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0.1</v>
+      </c>
+      <c r="AD24">
+        <v>0.02</v>
+      </c>
+      <c r="AE24">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF24">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG24">
+        <v>0.05</v>
+      </c>
+      <c r="AH24">
+        <v>-0.05</v>
+      </c>
+      <c r="AI24">
+        <v>999</v>
+      </c>
+      <c r="AJ24">
+        <v>-999</v>
+      </c>
+      <c r="AK24">
+        <v>0.02</v>
+      </c>
+      <c r="AL24">
+        <v>10</v>
+      </c>
+      <c r="AM24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E25" t="s">
+        <v>991</v>
+      </c>
+      <c r="F25" t="s">
+        <v>651</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.02</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0.8</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>999</v>
+      </c>
+      <c r="W25">
+        <v>-999</v>
+      </c>
+      <c r="X25">
+        <v>-0.1</v>
+      </c>
+      <c r="Y25">
+        <v>0.1</v>
+      </c>
+      <c r="Z25">
+        <v>999</v>
+      </c>
+      <c r="AA25">
+        <v>-999</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0.1</v>
+      </c>
+      <c r="AD25">
+        <v>0.02</v>
+      </c>
+      <c r="AE25">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF25">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG25">
+        <v>0.05</v>
+      </c>
+      <c r="AH25">
+        <v>-0.05</v>
+      </c>
+      <c r="AI25">
+        <v>999</v>
+      </c>
+      <c r="AJ25">
+        <v>-999</v>
+      </c>
+      <c r="AK25">
+        <v>0.02</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E26" t="s">
+        <v>992</v>
+      </c>
+      <c r="F26" t="s">
+        <v>652</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.02</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0.8</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>999</v>
+      </c>
+      <c r="W26">
+        <v>-999</v>
+      </c>
+      <c r="X26">
+        <v>-0.1</v>
+      </c>
+      <c r="Y26">
+        <v>0.1</v>
+      </c>
+      <c r="Z26">
+        <v>999</v>
+      </c>
+      <c r="AA26">
+        <v>-999</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0.1</v>
+      </c>
+      <c r="AD26">
+        <v>0.02</v>
+      </c>
+      <c r="AE26">
+        <v>-2.833E-4</v>
+      </c>
+      <c r="AF26">
+        <v>2.833E-4</v>
+      </c>
+      <c r="AG26">
+        <v>0.05</v>
+      </c>
+      <c r="AH26">
+        <v>-0.05</v>
+      </c>
+      <c r="AI26">
+        <v>999</v>
+      </c>
+      <c r="AJ26">
+        <v>-999</v>
+      </c>
+      <c r="AK26">
+        <v>0.02</v>
+      </c>
+      <c r="AL26">
+        <v>10</v>
+      </c>
+      <c r="AM26">
         <v>10</v>
       </c>
     </row>
@@ -21121,7 +25095,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21144,16 +25118,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -21161,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -21187,13 +25161,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
@@ -21213,13 +25187,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
@@ -21239,13 +25213,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
@@ -21265,13 +25239,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
@@ -21291,13 +25265,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
@@ -21317,13 +25291,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
@@ -21343,13 +25317,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
@@ -21369,13 +25343,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
@@ -21395,13 +25369,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
@@ -21421,13 +25395,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
@@ -21439,6 +25413,370 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E14" t="s">
+        <v>980</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E15" t="s">
+        <v>981</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E16" t="s">
+        <v>982</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E17" t="s">
+        <v>983</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E18" t="s">
+        <v>984</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" t="s">
+        <v>985</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" t="s">
+        <v>986</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E21" t="s">
+        <v>987</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E22" t="s">
+        <v>988</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E23" t="s">
+        <v>989</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E24" t="s">
+        <v>990</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E25" t="s">
+        <v>991</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E26" t="s">
+        <v>992</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -28016,7 +32354,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -28072,7 +32410,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -28240,7 +32578,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -29192,7 +33530,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -29248,7 +33586,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -29304,7 +33642,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -29360,7 +33698,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -29472,7 +33810,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -29528,7 +33866,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -29752,7 +34090,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>48</v>
@@ -29808,7 +34146,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -49184,7 +53522,7 @@
         <v>683</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>683</v>
@@ -49273,7 +53611,7 @@
         <v>684</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>684</v>
@@ -49362,7 +53700,7 @@
         <v>685</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>685</v>
@@ -50074,7 +54412,7 @@
         <v>693</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>693</v>
@@ -51409,7 +55747,7 @@
         <v>708</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>708</v>
@@ -51498,7 +55836,7 @@
         <v>709</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>709</v>
@@ -51587,7 +55925,7 @@
         <v>710</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>710</v>
@@ -51676,7 +56014,7 @@
         <v>711</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>711</v>
@@ -52477,7 +56815,7 @@
         <v>720</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>720</v>
@@ -52566,7 +56904,7 @@
         <v>721</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>721</v>
@@ -53290,7 +57628,7 @@
         <v>742</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>742</v>
@@ -53334,7 +57672,7 @@
         <v>743</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>743</v>
@@ -53378,7 +57716,7 @@
         <v>744</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>744</v>
@@ -53730,7 +58068,7 @@
         <v>752</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>752</v>
@@ -54390,7 +58728,7 @@
         <v>767</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>767</v>
@@ -54434,7 +58772,7 @@
         <v>768</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>768</v>
@@ -54478,7 +58816,7 @@
         <v>769</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>769</v>
@@ -54522,7 +58860,7 @@
         <v>770</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>770</v>
@@ -54566,7 +58904,7 @@
         <v>771</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>771</v>
@@ -54654,7 +58992,7 @@
         <v>773</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>773</v>
@@ -54918,7 +59256,7 @@
         <v>779</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -54962,7 +59300,7 @@
         <v>780</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>780</v>
@@ -55050,7 +59388,7 @@
         <v>782</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>782</v>
@@ -55094,7 +59432,7 @@
         <v>783</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>783</v>

--- a/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
+++ b/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441EFE8-ECDB-2441-9899-F040541E61CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3527EA8B-9275-2749-99D2-DE0269ED2181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GENROU" sheetId="8" r:id="rId8"/>
     <sheet name="TGOV1N" sheetId="9" r:id="rId9"/>
-    <sheet name="IEEEG1TS" sheetId="10" r:id="rId10"/>
+    <sheet name="IEEEG1TS2" sheetId="10" r:id="rId10"/>
     <sheet name="GAST" sheetId="11" r:id="rId11"/>
     <sheet name="SEXS" sheetId="12" r:id="rId12"/>
     <sheet name="REGCA1" sheetId="13" r:id="rId13"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1033">
   <si>
     <t>idx</t>
   </si>
@@ -2476,6 +2476,33 @@
     <t>IEEEG1_11</t>
   </si>
   <si>
+    <t>IEEEG1_12</t>
+  </si>
+  <si>
+    <t>IEEEG1_13</t>
+  </si>
+  <si>
+    <t>IEEEG1_14</t>
+  </si>
+  <si>
+    <t>IEEEG1_15</t>
+  </si>
+  <si>
+    <t>IEEEG1_16</t>
+  </si>
+  <si>
+    <t>IEEEG1_17</t>
+  </si>
+  <si>
+    <t>IEEEG1_18</t>
+  </si>
+  <si>
+    <t>IEEEG1_19</t>
+  </si>
+  <si>
+    <t>IEEEG1_20</t>
+  </si>
+  <si>
     <t>KT</t>
   </si>
   <si>
@@ -2518,6 +2545,21 @@
     <t>GAST_12</t>
   </si>
   <si>
+    <t>GAST_13</t>
+  </si>
+  <si>
+    <t>GAST_14</t>
+  </si>
+  <si>
+    <t>GAST_15</t>
+  </si>
+  <si>
+    <t>GAST_16</t>
+  </si>
+  <si>
+    <t>GAST_17</t>
+  </si>
+  <si>
     <t>TATB</t>
   </si>
   <si>
@@ -2758,48 +2800,6 @@
     <t>REGCA_11</t>
   </si>
   <si>
-    <t>REGCA_12</t>
-  </si>
-  <si>
-    <t>REGCA_13</t>
-  </si>
-  <si>
-    <t>REGCA_14</t>
-  </si>
-  <si>
-    <t>REGCA_15</t>
-  </si>
-  <si>
-    <t>REGCA_16</t>
-  </si>
-  <si>
-    <t>REGCA_17</t>
-  </si>
-  <si>
-    <t>REGCA_18</t>
-  </si>
-  <si>
-    <t>REGCA_19</t>
-  </si>
-  <si>
-    <t>REGCA_20</t>
-  </si>
-  <si>
-    <t>REGCA_21</t>
-  </si>
-  <si>
-    <t>REGCA_22</t>
-  </si>
-  <si>
-    <t>REGCA_23</t>
-  </si>
-  <si>
-    <t>REGCA_24</t>
-  </si>
-  <si>
-    <t>REGCA_25</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -2974,48 +2974,6 @@
     <t>REECA1_11</t>
   </si>
   <si>
-    <t>REECA1_12</t>
-  </si>
-  <si>
-    <t>REECA1_13</t>
-  </si>
-  <si>
-    <t>REECA1_14</t>
-  </si>
-  <si>
-    <t>REECA1_15</t>
-  </si>
-  <si>
-    <t>REECA1_16</t>
-  </si>
-  <si>
-    <t>REECA1_17</t>
-  </si>
-  <si>
-    <t>REECA1_18</t>
-  </si>
-  <si>
-    <t>REECA1_19</t>
-  </si>
-  <si>
-    <t>REECA1_20</t>
-  </si>
-  <si>
-    <t>REECA1_21</t>
-  </si>
-  <si>
-    <t>REECA1_22</t>
-  </si>
-  <si>
-    <t>REECA1_23</t>
-  </si>
-  <si>
-    <t>REECA1_24</t>
-  </si>
-  <si>
-    <t>REECA1_25</t>
-  </si>
-  <si>
     <t>ree</t>
   </si>
   <si>
@@ -3136,48 +3094,6 @@
     <t>REPCA1_11</t>
   </si>
   <si>
-    <t>REPCA1_12</t>
-  </si>
-  <si>
-    <t>REPCA1_13</t>
-  </si>
-  <si>
-    <t>REPCA1_14</t>
-  </si>
-  <si>
-    <t>REPCA1_15</t>
-  </si>
-  <si>
-    <t>REPCA1_16</t>
-  </si>
-  <si>
-    <t>REPCA1_17</t>
-  </si>
-  <si>
-    <t>REPCA1_18</t>
-  </si>
-  <si>
-    <t>REPCA1_19</t>
-  </si>
-  <si>
-    <t>REPCA1_20</t>
-  </si>
-  <si>
-    <t>REPCA1_21</t>
-  </si>
-  <si>
-    <t>REPCA1_22</t>
-  </si>
-  <si>
-    <t>REPCA1_23</t>
-  </si>
-  <si>
-    <t>REPCA1_24</t>
-  </si>
-  <si>
-    <t>REPCA1_25</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -3215,48 +3131,6 @@
   </si>
   <si>
     <t>WTDS_11</t>
-  </si>
-  <si>
-    <t>WTDS_12</t>
-  </si>
-  <si>
-    <t>WTDS_13</t>
-  </si>
-  <si>
-    <t>WTDS_14</t>
-  </si>
-  <si>
-    <t>WTDS_15</t>
-  </si>
-  <si>
-    <t>WTDS_16</t>
-  </si>
-  <si>
-    <t>WTDS_17</t>
-  </si>
-  <si>
-    <t>WTDS_18</t>
-  </si>
-  <si>
-    <t>WTDS_19</t>
-  </si>
-  <si>
-    <t>WTDS_20</t>
-  </si>
-  <si>
-    <t>WTDS_21</t>
-  </si>
-  <si>
-    <t>WTDS_22</t>
-  </si>
-  <si>
-    <t>WTDS_23</t>
-  </si>
-  <si>
-    <t>WTDS_24</t>
-  </si>
-  <si>
-    <t>WTDS_25</t>
   </si>
   <si>
     <t>CE</t>
@@ -12501,11 +12375,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12596,7 +12470,7 @@
         <v>801</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -12682,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -12768,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -12854,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -12940,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -13026,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -13112,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -13129,7 +13003,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13141,10 +13015,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.41585</v>
+        <v>0.29399199999999998</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>0.1</v>
@@ -13171,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9.0000900000000001</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>0.5</v>
@@ -13198,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -13215,7 +13089,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13227,7 +13101,7 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.385075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -13284,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -13301,7 +13175,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13313,7 +13187,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>0.20569599999999999</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13370,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -13387,7 +13261,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13399,7 +13273,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13456,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -13473,7 +13347,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13488,7 +13362,7 @@
         <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.71988200000000002</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>0.1</v>
@@ -13515,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2.39961</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -13542,7 +13416,781 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>150</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E13" t="s">
+        <v>688</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>-0.1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>9.0000900000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.05</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E14" t="s">
+        <v>696</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>-0.1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>9.0000900000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.05</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>815</v>
+      </c>
+      <c r="E15" t="s">
+        <v>707</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15">
+        <v>0.71988200000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>-0.1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>2.39961</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.05</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>816</v>
+      </c>
+      <c r="E16" t="s">
+        <v>708</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0.1</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
+        <v>-0.1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>9.0000900000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.05</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>709</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>2.1</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>-0.1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>6.3000600000000002</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.05</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E18" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>2.1</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>-0.1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.05</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>819</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>819</v>
+      </c>
+      <c r="E19" t="s">
+        <v>711</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>2.7096100000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0.1</v>
+      </c>
+      <c r="N19">
+        <v>-0.1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.4</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>8.1289099999999994</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0.05</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>820</v>
+      </c>
+      <c r="E20" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0.1</v>
+      </c>
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20">
+        <v>-0.1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.4</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>9.0000900000000001</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0.05</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>821</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>821</v>
+      </c>
+      <c r="E21" t="s">
+        <v>721</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="N21">
+        <v>-0.1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.4</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.05</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -13552,7 +14200,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13593,10 +14241,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -13616,13 +14264,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -13666,13 +14314,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -13716,13 +14364,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -13766,13 +14414,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -13816,16 +14464,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="E6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -13852,10 +14500,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.1187400000000001</v>
       </c>
       <c r="O6">
-        <v>6.3000600000000002</v>
+        <v>3.3562400000000001</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -13866,16 +14514,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13884,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -13916,16 +14564,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="E8" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13934,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -13952,10 +14600,10 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>9.0000900000000001</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -13966,16 +14614,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="E9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -14002,10 +14650,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>9.0000900000000001</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -14016,16 +14664,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="E10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -14052,10 +14700,10 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>6.3000600000000002</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -14066,16 +14714,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="E11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -14084,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -14116,16 +14764,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="E12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14134,7 +14782,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -14152,10 +14800,10 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>6.3000600000000002</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -14166,16 +14814,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -14202,12 +14850,262 @@
         <v>0.1</v>
       </c>
       <c r="N13">
+        <v>2.1</v>
+      </c>
+      <c r="O13">
+        <v>6.3000600000000002</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>836</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>837</v>
+      </c>
+      <c r="E15" t="s">
+        <v>718</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>2.1</v>
+      </c>
+      <c r="O15">
+        <v>6.3000600000000002</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>838</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>838</v>
+      </c>
+      <c r="E16" t="s">
+        <v>719</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
         <v>1.51816</v>
       </c>
-      <c r="O13">
+      <c r="O16">
         <v>5.0605399999999996</v>
       </c>
-      <c r="P13">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>839</v>
+      </c>
+      <c r="E17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1</v>
+      </c>
+      <c r="N17">
+        <v>2.1</v>
+      </c>
+      <c r="O17">
+        <v>6.3000600000000002</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>840</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>840</v>
+      </c>
+      <c r="E18" t="s">
+        <v>724</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.04</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>0.91889200000000004</v>
+      </c>
+      <c r="O18">
+        <v>2.7566999999999999</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -14244,22 +15142,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -14267,13 +15165,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -14302,13 +15200,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -14337,13 +15235,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -14372,13 +15270,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -14407,13 +15305,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -14442,13 +15340,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -14477,13 +15375,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -14512,13 +15410,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -14547,13 +15445,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -14582,13 +15480,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -14617,13 +15515,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -14652,13 +15550,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -14687,13 +15585,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -14722,13 +15620,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -14757,13 +15655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -14792,13 +15690,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -14827,13 +15725,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -14862,13 +15760,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -14897,13 +15795,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -14932,13 +15830,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -14967,13 +15865,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15002,13 +15900,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15037,13 +15935,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15072,13 +15970,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -15107,13 +16005,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -15142,13 +16040,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -15177,13 +16075,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -15212,13 +16110,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -15247,13 +16145,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -15282,13 +16180,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -15317,13 +16215,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -15352,13 +16250,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -15387,13 +16285,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -15422,13 +16320,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -15457,13 +16355,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -15492,13 +16390,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -15527,13 +16425,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -15562,13 +16460,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -15597,13 +16495,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -15632,13 +16530,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -15667,13 +16565,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -15702,13 +16600,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -15737,13 +16635,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -15772,13 +16670,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -15807,13 +16705,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -15842,13 +16740,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -15877,13 +16775,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -15912,13 +16810,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -15947,13 +16845,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -15984,7 +16882,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16016,49 +16914,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16072,13 +16970,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -16102,7 +17000,7 @@
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -16146,22 +17044,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>33.5</v>
+        <v>118.8</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -16176,7 +17074,7 @@
         <v>0.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -16220,22 +17118,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>33.5</v>
+        <v>237.6</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -16250,7 +17148,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -16294,22 +17192,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>33.5</v>
+        <v>2.04</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -16324,7 +17222,7 @@
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -16368,22 +17266,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>3.84</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -16398,7 +17296,7 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -16442,22 +17340,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="E7">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>118.8</v>
+        <v>156.06</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -16472,7 +17370,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -16516,22 +17414,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="E8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>237.6</v>
+        <v>156.06</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -16546,7 +17444,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -16590,22 +17488,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="E9">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>2.04</v>
+        <v>156.06</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -16620,7 +17518,7 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -16664,22 +17562,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="E10">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>180</v>
+        <v>535.67999999999995</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -16694,7 +17592,7 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -16738,22 +17636,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="E11">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>156.06</v>
+        <v>535.67999999999995</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -16768,7 +17666,7 @@
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -16812,22 +17710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="E12">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>156.06</v>
+        <v>120.6</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -16842,7 +17740,7 @@
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -16878,1042 +17776,6 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>907</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>907</v>
-      </c>
-      <c r="E13">
-        <v>127</v>
-      </c>
-      <c r="F13">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>156.06</v>
-      </c>
-      <c r="H13">
-        <v>0.1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1.2</v>
-      </c>
-      <c r="O13">
-        <v>0.8</v>
-      </c>
-      <c r="P13">
-        <v>0.4</v>
-      </c>
-      <c r="Q13">
-        <v>-1.5</v>
-      </c>
-      <c r="R13">
-        <v>0.1</v>
-      </c>
-      <c r="S13">
-        <v>0.7</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>-1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>908</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>908</v>
-      </c>
-      <c r="E14">
-        <v>135</v>
-      </c>
-      <c r="F14">
-        <v>29</v>
-      </c>
-      <c r="G14">
-        <v>535.67999999999995</v>
-      </c>
-      <c r="H14">
-        <v>0.1</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1.2</v>
-      </c>
-      <c r="O14">
-        <v>0.8</v>
-      </c>
-      <c r="P14">
-        <v>0.4</v>
-      </c>
-      <c r="Q14">
-        <v>-1.5</v>
-      </c>
-      <c r="R14">
-        <v>0.1</v>
-      </c>
-      <c r="S14">
-        <v>0.7</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>-1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>909</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>909</v>
-      </c>
-      <c r="E15">
-        <v>136</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>535.67999999999995</v>
-      </c>
-      <c r="H15">
-        <v>0.1</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1.2</v>
-      </c>
-      <c r="O15">
-        <v>0.8</v>
-      </c>
-      <c r="P15">
-        <v>0.4</v>
-      </c>
-      <c r="Q15">
-        <v>-1.5</v>
-      </c>
-      <c r="R15">
-        <v>0.1</v>
-      </c>
-      <c r="S15">
-        <v>0.7</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>-1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>910</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E16">
-        <v>147</v>
-      </c>
-      <c r="F16">
-        <v>31</v>
-      </c>
-      <c r="G16">
-        <v>120.6</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1.2</v>
-      </c>
-      <c r="O16">
-        <v>0.8</v>
-      </c>
-      <c r="P16">
-        <v>0.4</v>
-      </c>
-      <c r="Q16">
-        <v>-1.5</v>
-      </c>
-      <c r="R16">
-        <v>0.1</v>
-      </c>
-      <c r="S16">
-        <v>0.7</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>-1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>911</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>911</v>
-      </c>
-      <c r="E17">
-        <v>152</v>
-      </c>
-      <c r="F17">
-        <v>33</v>
-      </c>
-      <c r="G17">
-        <v>92.67</v>
-      </c>
-      <c r="H17">
-        <v>0.1</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1.2</v>
-      </c>
-      <c r="O17">
-        <v>0.8</v>
-      </c>
-      <c r="P17">
-        <v>0.4</v>
-      </c>
-      <c r="Q17">
-        <v>-1.5</v>
-      </c>
-      <c r="R17">
-        <v>0.1</v>
-      </c>
-      <c r="S17">
-        <v>0.7</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>-1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>912</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>912</v>
-      </c>
-      <c r="E18">
-        <v>153</v>
-      </c>
-      <c r="F18">
-        <v>34</v>
-      </c>
-      <c r="G18">
-        <v>92.67</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1.2</v>
-      </c>
-      <c r="O18">
-        <v>0.8</v>
-      </c>
-      <c r="P18">
-        <v>0.4</v>
-      </c>
-      <c r="Q18">
-        <v>-1.5</v>
-      </c>
-      <c r="R18">
-        <v>0.1</v>
-      </c>
-      <c r="S18">
-        <v>0.7</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>913</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>913</v>
-      </c>
-      <c r="E19">
-        <v>154</v>
-      </c>
-      <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="G19">
-        <v>92.67</v>
-      </c>
-      <c r="H19">
-        <v>0.1</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1.2</v>
-      </c>
-      <c r="O19">
-        <v>0.8</v>
-      </c>
-      <c r="P19">
-        <v>0.4</v>
-      </c>
-      <c r="Q19">
-        <v>-1.5</v>
-      </c>
-      <c r="R19">
-        <v>0.1</v>
-      </c>
-      <c r="S19">
-        <v>0.7</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>-1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>914</v>
-      </c>
-      <c r="E20">
-        <v>155</v>
-      </c>
-      <c r="F20">
-        <v>36</v>
-      </c>
-      <c r="G20">
-        <v>92.67</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.5</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1.2</v>
-      </c>
-      <c r="O20">
-        <v>0.8</v>
-      </c>
-      <c r="P20">
-        <v>0.4</v>
-      </c>
-      <c r="Q20">
-        <v>-1.5</v>
-      </c>
-      <c r="R20">
-        <v>0.1</v>
-      </c>
-      <c r="S20">
-        <v>0.7</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>-1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>915</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>915</v>
-      </c>
-      <c r="E21">
-        <v>161</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>166.32</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0.5</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1.2</v>
-      </c>
-      <c r="O21">
-        <v>0.8</v>
-      </c>
-      <c r="P21">
-        <v>0.4</v>
-      </c>
-      <c r="Q21">
-        <v>-1.5</v>
-      </c>
-      <c r="R21">
-        <v>0.1</v>
-      </c>
-      <c r="S21">
-        <v>0.7</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>916</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>916</v>
-      </c>
-      <c r="E22">
-        <v>165</v>
-      </c>
-      <c r="F22">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>31.2</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.5</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1.2</v>
-      </c>
-      <c r="O22">
-        <v>0.8</v>
-      </c>
-      <c r="P22">
-        <v>0.4</v>
-      </c>
-      <c r="Q22">
-        <v>-1.5</v>
-      </c>
-      <c r="R22">
-        <v>0.1</v>
-      </c>
-      <c r="S22">
-        <v>0.7</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>-1</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>917</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>917</v>
-      </c>
-      <c r="E23">
-        <v>182</v>
-      </c>
-      <c r="F23">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0.1</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.5</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1.2</v>
-      </c>
-      <c r="O23">
-        <v>0.8</v>
-      </c>
-      <c r="P23">
-        <v>0.4</v>
-      </c>
-      <c r="Q23">
-        <v>-1.5</v>
-      </c>
-      <c r="R23">
-        <v>0.1</v>
-      </c>
-      <c r="S23">
-        <v>0.7</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>-1</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>918</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>918</v>
-      </c>
-      <c r="E24">
-        <v>183</v>
-      </c>
-      <c r="F24">
-        <v>46</v>
-      </c>
-      <c r="G24">
-        <v>31.92</v>
-      </c>
-      <c r="H24">
-        <v>0.1</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.5</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1.2</v>
-      </c>
-      <c r="O24">
-        <v>0.8</v>
-      </c>
-      <c r="P24">
-        <v>0.4</v>
-      </c>
-      <c r="Q24">
-        <v>-1.5</v>
-      </c>
-      <c r="R24">
-        <v>0.1</v>
-      </c>
-      <c r="S24">
-        <v>0.7</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>-1</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>919</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>919</v>
-      </c>
-      <c r="E25">
-        <v>196</v>
-      </c>
-      <c r="F25">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>81</v>
-      </c>
-      <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1.2</v>
-      </c>
-      <c r="O25">
-        <v>0.8</v>
-      </c>
-      <c r="P25">
-        <v>0.4</v>
-      </c>
-      <c r="Q25">
-        <v>-1.5</v>
-      </c>
-      <c r="R25">
-        <v>0.1</v>
-      </c>
-      <c r="S25">
-        <v>0.7</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>-1</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>920</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>920</v>
-      </c>
-      <c r="E26">
-        <v>197</v>
-      </c>
-      <c r="F26">
-        <v>49</v>
-      </c>
-      <c r="G26">
-        <v>81</v>
-      </c>
-      <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1.2</v>
-      </c>
-      <c r="O26">
-        <v>0.8</v>
-      </c>
-      <c r="P26">
-        <v>0.4</v>
-      </c>
-      <c r="Q26">
-        <v>-1.5</v>
-      </c>
-      <c r="R26">
-        <v>0.1</v>
-      </c>
-      <c r="S26">
-        <v>0.7</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>-1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
         <v>1</v>
       </c>
     </row>
@@ -17924,7 +17786,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18117,7 +17979,7 @@
         <v>968</v>
       </c>
       <c r="E2" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18284,7 +18146,7 @@
         <v>969</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18451,7 +18313,7 @@
         <v>970</v>
       </c>
       <c r="E4" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18618,7 +18480,7 @@
         <v>971</v>
       </c>
       <c r="E5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18785,7 +18647,7 @@
         <v>972</v>
       </c>
       <c r="E6" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18952,7 +18814,7 @@
         <v>973</v>
       </c>
       <c r="E7" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -19119,7 +18981,7 @@
         <v>974</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19286,7 +19148,7 @@
         <v>975</v>
       </c>
       <c r="E9" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19453,7 +19315,7 @@
         <v>976</v>
       </c>
       <c r="E10" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19620,7 +19482,7 @@
         <v>977</v>
       </c>
       <c r="E11" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19787,7 +19649,7 @@
         <v>978</v>
       </c>
       <c r="E12" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19937,2344 +19799,6 @@
         <v>1</v>
       </c>
       <c r="BD12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>979</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>979</v>
-      </c>
-      <c r="E13" t="s">
-        <v>907</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.8</v>
-      </c>
-      <c r="M13">
-        <v>1.2</v>
-      </c>
-      <c r="N13">
-        <v>0.02</v>
-      </c>
-      <c r="O13">
-        <v>-0.1</v>
-      </c>
-      <c r="P13">
-        <v>0.1</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
-      <c r="R13">
-        <v>999</v>
-      </c>
-      <c r="S13">
-        <v>-999</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>-2</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0.02</v>
-      </c>
-      <c r="Y13">
-        <v>999</v>
-      </c>
-      <c r="Z13">
-        <v>-999</v>
-      </c>
-      <c r="AA13">
-        <v>999</v>
-      </c>
-      <c r="AB13">
-        <v>-999</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>0.02</v>
-      </c>
-      <c r="AI13">
-        <v>999</v>
-      </c>
-      <c r="AJ13">
-        <v>-999</v>
-      </c>
-      <c r="AK13">
-        <v>999</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>10</v>
-      </c>
-      <c r="AN13">
-        <v>0.02</v>
-      </c>
-      <c r="AO13">
-        <v>0.2</v>
-      </c>
-      <c r="AP13">
-        <v>2</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
-      <c r="AS13">
-        <v>0.8</v>
-      </c>
-      <c r="AT13">
-        <v>8</v>
-      </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
-      <c r="AV13">
-        <v>10</v>
-      </c>
-      <c r="AW13">
-        <v>0.2</v>
-      </c>
-      <c r="AX13">
-        <v>2</v>
-      </c>
-      <c r="AY13">
-        <v>0.4</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13">
-        <v>0.8</v>
-      </c>
-      <c r="BB13">
-        <v>8</v>
-      </c>
-      <c r="BC13">
-        <v>1</v>
-      </c>
-      <c r="BD13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>980</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>980</v>
-      </c>
-      <c r="E14" t="s">
-        <v>908</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.8</v>
-      </c>
-      <c r="M14">
-        <v>1.2</v>
-      </c>
-      <c r="N14">
-        <v>0.02</v>
-      </c>
-      <c r="O14">
-        <v>-0.1</v>
-      </c>
-      <c r="P14">
-        <v>0.1</v>
-      </c>
-      <c r="Q14">
-        <v>20</v>
-      </c>
-      <c r="R14">
-        <v>999</v>
-      </c>
-      <c r="S14">
-        <v>-999</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>-2</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0.02</v>
-      </c>
-      <c r="Y14">
-        <v>999</v>
-      </c>
-      <c r="Z14">
-        <v>-999</v>
-      </c>
-      <c r="AA14">
-        <v>999</v>
-      </c>
-      <c r="AB14">
-        <v>-999</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>0.02</v>
-      </c>
-      <c r="AI14">
-        <v>999</v>
-      </c>
-      <c r="AJ14">
-        <v>-999</v>
-      </c>
-      <c r="AK14">
-        <v>999</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>10</v>
-      </c>
-      <c r="AN14">
-        <v>0.02</v>
-      </c>
-      <c r="AO14">
-        <v>0.2</v>
-      </c>
-      <c r="AP14">
-        <v>2</v>
-      </c>
-      <c r="AQ14">
-        <v>0.4</v>
-      </c>
-      <c r="AR14">
-        <v>4</v>
-      </c>
-      <c r="AS14">
-        <v>0.8</v>
-      </c>
-      <c r="AT14">
-        <v>8</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <v>10</v>
-      </c>
-      <c r="AW14">
-        <v>0.2</v>
-      </c>
-      <c r="AX14">
-        <v>2</v>
-      </c>
-      <c r="AY14">
-        <v>0.4</v>
-      </c>
-      <c r="AZ14">
-        <v>4</v>
-      </c>
-      <c r="BA14">
-        <v>0.8</v>
-      </c>
-      <c r="BB14">
-        <v>8</v>
-      </c>
-      <c r="BC14">
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>981</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>981</v>
-      </c>
-      <c r="E15" t="s">
-        <v>909</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.8</v>
-      </c>
-      <c r="M15">
-        <v>1.2</v>
-      </c>
-      <c r="N15">
-        <v>0.02</v>
-      </c>
-      <c r="O15">
-        <v>-0.1</v>
-      </c>
-      <c r="P15">
-        <v>0.1</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>999</v>
-      </c>
-      <c r="S15">
-        <v>-999</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>-2</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0.02</v>
-      </c>
-      <c r="Y15">
-        <v>999</v>
-      </c>
-      <c r="Z15">
-        <v>-999</v>
-      </c>
-      <c r="AA15">
-        <v>999</v>
-      </c>
-      <c r="AB15">
-        <v>-999</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>0.02</v>
-      </c>
-      <c r="AI15">
-        <v>999</v>
-      </c>
-      <c r="AJ15">
-        <v>-999</v>
-      </c>
-      <c r="AK15">
-        <v>999</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>10</v>
-      </c>
-      <c r="AN15">
-        <v>0.02</v>
-      </c>
-      <c r="AO15">
-        <v>0.2</v>
-      </c>
-      <c r="AP15">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>0.4</v>
-      </c>
-      <c r="AR15">
-        <v>4</v>
-      </c>
-      <c r="AS15">
-        <v>0.8</v>
-      </c>
-      <c r="AT15">
-        <v>8</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>10</v>
-      </c>
-      <c r="AW15">
-        <v>0.2</v>
-      </c>
-      <c r="AX15">
-        <v>2</v>
-      </c>
-      <c r="AY15">
-        <v>0.4</v>
-      </c>
-      <c r="AZ15">
-        <v>4</v>
-      </c>
-      <c r="BA15">
-        <v>0.8</v>
-      </c>
-      <c r="BB15">
-        <v>8</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>982</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>982</v>
-      </c>
-      <c r="E16" t="s">
-        <v>910</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.8</v>
-      </c>
-      <c r="M16">
-        <v>1.2</v>
-      </c>
-      <c r="N16">
-        <v>0.02</v>
-      </c>
-      <c r="O16">
-        <v>-0.1</v>
-      </c>
-      <c r="P16">
-        <v>0.1</v>
-      </c>
-      <c r="Q16">
-        <v>20</v>
-      </c>
-      <c r="R16">
-        <v>999</v>
-      </c>
-      <c r="S16">
-        <v>-999</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>-2</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0.02</v>
-      </c>
-      <c r="Y16">
-        <v>999</v>
-      </c>
-      <c r="Z16">
-        <v>-999</v>
-      </c>
-      <c r="AA16">
-        <v>999</v>
-      </c>
-      <c r="AB16">
-        <v>-999</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>0.02</v>
-      </c>
-      <c r="AI16">
-        <v>999</v>
-      </c>
-      <c r="AJ16">
-        <v>-999</v>
-      </c>
-      <c r="AK16">
-        <v>999</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>10</v>
-      </c>
-      <c r="AN16">
-        <v>0.02</v>
-      </c>
-      <c r="AO16">
-        <v>0.2</v>
-      </c>
-      <c r="AP16">
-        <v>2</v>
-      </c>
-      <c r="AQ16">
-        <v>0.4</v>
-      </c>
-      <c r="AR16">
-        <v>4</v>
-      </c>
-      <c r="AS16">
-        <v>0.8</v>
-      </c>
-      <c r="AT16">
-        <v>8</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
-        <v>10</v>
-      </c>
-      <c r="AW16">
-        <v>0.2</v>
-      </c>
-      <c r="AX16">
-        <v>2</v>
-      </c>
-      <c r="AY16">
-        <v>0.4</v>
-      </c>
-      <c r="AZ16">
-        <v>4</v>
-      </c>
-      <c r="BA16">
-        <v>0.8</v>
-      </c>
-      <c r="BB16">
-        <v>8</v>
-      </c>
-      <c r="BC16">
-        <v>1</v>
-      </c>
-      <c r="BD16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>983</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>983</v>
-      </c>
-      <c r="E17" t="s">
-        <v>911</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.8</v>
-      </c>
-      <c r="M17">
-        <v>1.2</v>
-      </c>
-      <c r="N17">
-        <v>0.02</v>
-      </c>
-      <c r="O17">
-        <v>-0.1</v>
-      </c>
-      <c r="P17">
-        <v>0.1</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
-      <c r="R17">
-        <v>999</v>
-      </c>
-      <c r="S17">
-        <v>-999</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>-2</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0.02</v>
-      </c>
-      <c r="Y17">
-        <v>999</v>
-      </c>
-      <c r="Z17">
-        <v>-999</v>
-      </c>
-      <c r="AA17">
-        <v>999</v>
-      </c>
-      <c r="AB17">
-        <v>-999</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>0.02</v>
-      </c>
-      <c r="AI17">
-        <v>999</v>
-      </c>
-      <c r="AJ17">
-        <v>-999</v>
-      </c>
-      <c r="AK17">
-        <v>999</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
-      </c>
-      <c r="AN17">
-        <v>0.02</v>
-      </c>
-      <c r="AO17">
-        <v>0.2</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>0.4</v>
-      </c>
-      <c r="AR17">
-        <v>4</v>
-      </c>
-      <c r="AS17">
-        <v>0.8</v>
-      </c>
-      <c r="AT17">
-        <v>8</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>10</v>
-      </c>
-      <c r="AW17">
-        <v>0.2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17">
-        <v>0.4</v>
-      </c>
-      <c r="AZ17">
-        <v>4</v>
-      </c>
-      <c r="BA17">
-        <v>0.8</v>
-      </c>
-      <c r="BB17">
-        <v>8</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>984</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>984</v>
-      </c>
-      <c r="E18" t="s">
-        <v>912</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.8</v>
-      </c>
-      <c r="M18">
-        <v>1.2</v>
-      </c>
-      <c r="N18">
-        <v>0.02</v>
-      </c>
-      <c r="O18">
-        <v>-0.1</v>
-      </c>
-      <c r="P18">
-        <v>0.1</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-      <c r="R18">
-        <v>999</v>
-      </c>
-      <c r="S18">
-        <v>-999</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>-2</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0.02</v>
-      </c>
-      <c r="Y18">
-        <v>999</v>
-      </c>
-      <c r="Z18">
-        <v>-999</v>
-      </c>
-      <c r="AA18">
-        <v>999</v>
-      </c>
-      <c r="AB18">
-        <v>-999</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>0.02</v>
-      </c>
-      <c r="AI18">
-        <v>999</v>
-      </c>
-      <c r="AJ18">
-        <v>-999</v>
-      </c>
-      <c r="AK18">
-        <v>999</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>10</v>
-      </c>
-      <c r="AN18">
-        <v>0.02</v>
-      </c>
-      <c r="AO18">
-        <v>0.2</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>0.4</v>
-      </c>
-      <c r="AR18">
-        <v>4</v>
-      </c>
-      <c r="AS18">
-        <v>0.8</v>
-      </c>
-      <c r="AT18">
-        <v>8</v>
-      </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
-        <v>10</v>
-      </c>
-      <c r="AW18">
-        <v>0.2</v>
-      </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
-      <c r="AY18">
-        <v>0.4</v>
-      </c>
-      <c r="AZ18">
-        <v>4</v>
-      </c>
-      <c r="BA18">
-        <v>0.8</v>
-      </c>
-      <c r="BB18">
-        <v>8</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-      <c r="BD18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>985</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>985</v>
-      </c>
-      <c r="E19" t="s">
-        <v>913</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.8</v>
-      </c>
-      <c r="M19">
-        <v>1.2</v>
-      </c>
-      <c r="N19">
-        <v>0.02</v>
-      </c>
-      <c r="O19">
-        <v>-0.1</v>
-      </c>
-      <c r="P19">
-        <v>0.1</v>
-      </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-      <c r="R19">
-        <v>999</v>
-      </c>
-      <c r="S19">
-        <v>-999</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>-2</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>0.02</v>
-      </c>
-      <c r="Y19">
-        <v>999</v>
-      </c>
-      <c r="Z19">
-        <v>-999</v>
-      </c>
-      <c r="AA19">
-        <v>999</v>
-      </c>
-      <c r="AB19">
-        <v>-999</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>0.02</v>
-      </c>
-      <c r="AI19">
-        <v>999</v>
-      </c>
-      <c r="AJ19">
-        <v>-999</v>
-      </c>
-      <c r="AK19">
-        <v>999</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>10</v>
-      </c>
-      <c r="AN19">
-        <v>0.02</v>
-      </c>
-      <c r="AO19">
-        <v>0.2</v>
-      </c>
-      <c r="AP19">
-        <v>2</v>
-      </c>
-      <c r="AQ19">
-        <v>0.4</v>
-      </c>
-      <c r="AR19">
-        <v>4</v>
-      </c>
-      <c r="AS19">
-        <v>0.8</v>
-      </c>
-      <c r="AT19">
-        <v>8</v>
-      </c>
-      <c r="AU19">
-        <v>1</v>
-      </c>
-      <c r="AV19">
-        <v>10</v>
-      </c>
-      <c r="AW19">
-        <v>0.2</v>
-      </c>
-      <c r="AX19">
-        <v>2</v>
-      </c>
-      <c r="AY19">
-        <v>0.4</v>
-      </c>
-      <c r="AZ19">
-        <v>4</v>
-      </c>
-      <c r="BA19">
-        <v>0.8</v>
-      </c>
-      <c r="BB19">
-        <v>8</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>986</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>986</v>
-      </c>
-      <c r="E20" t="s">
-        <v>914</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.8</v>
-      </c>
-      <c r="M20">
-        <v>1.2</v>
-      </c>
-      <c r="N20">
-        <v>0.02</v>
-      </c>
-      <c r="O20">
-        <v>-0.1</v>
-      </c>
-      <c r="P20">
-        <v>0.1</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-      <c r="R20">
-        <v>999</v>
-      </c>
-      <c r="S20">
-        <v>-999</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>-2</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0.02</v>
-      </c>
-      <c r="Y20">
-        <v>999</v>
-      </c>
-      <c r="Z20">
-        <v>-999</v>
-      </c>
-      <c r="AA20">
-        <v>999</v>
-      </c>
-      <c r="AB20">
-        <v>-999</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>0.02</v>
-      </c>
-      <c r="AI20">
-        <v>999</v>
-      </c>
-      <c r="AJ20">
-        <v>-999</v>
-      </c>
-      <c r="AK20">
-        <v>999</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>10</v>
-      </c>
-      <c r="AN20">
-        <v>0.02</v>
-      </c>
-      <c r="AO20">
-        <v>0.2</v>
-      </c>
-      <c r="AP20">
-        <v>2</v>
-      </c>
-      <c r="AQ20">
-        <v>0.4</v>
-      </c>
-      <c r="AR20">
-        <v>4</v>
-      </c>
-      <c r="AS20">
-        <v>0.8</v>
-      </c>
-      <c r="AT20">
-        <v>8</v>
-      </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
-      <c r="AV20">
-        <v>10</v>
-      </c>
-      <c r="AW20">
-        <v>0.2</v>
-      </c>
-      <c r="AX20">
-        <v>2</v>
-      </c>
-      <c r="AY20">
-        <v>0.4</v>
-      </c>
-      <c r="AZ20">
-        <v>4</v>
-      </c>
-      <c r="BA20">
-        <v>0.8</v>
-      </c>
-      <c r="BB20">
-        <v>8</v>
-      </c>
-      <c r="BC20">
-        <v>1</v>
-      </c>
-      <c r="BD20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>987</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>987</v>
-      </c>
-      <c r="E21" t="s">
-        <v>915</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.8</v>
-      </c>
-      <c r="M21">
-        <v>1.2</v>
-      </c>
-      <c r="N21">
-        <v>0.02</v>
-      </c>
-      <c r="O21">
-        <v>-0.1</v>
-      </c>
-      <c r="P21">
-        <v>0.1</v>
-      </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <v>999</v>
-      </c>
-      <c r="S21">
-        <v>-999</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>-2</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0.02</v>
-      </c>
-      <c r="Y21">
-        <v>999</v>
-      </c>
-      <c r="Z21">
-        <v>-999</v>
-      </c>
-      <c r="AA21">
-        <v>999</v>
-      </c>
-      <c r="AB21">
-        <v>-999</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>0.02</v>
-      </c>
-      <c r="AI21">
-        <v>999</v>
-      </c>
-      <c r="AJ21">
-        <v>-999</v>
-      </c>
-      <c r="AK21">
-        <v>999</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>10</v>
-      </c>
-      <c r="AN21">
-        <v>0.02</v>
-      </c>
-      <c r="AO21">
-        <v>0.2</v>
-      </c>
-      <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21">
-        <v>0.4</v>
-      </c>
-      <c r="AR21">
-        <v>4</v>
-      </c>
-      <c r="AS21">
-        <v>0.8</v>
-      </c>
-      <c r="AT21">
-        <v>8</v>
-      </c>
-      <c r="AU21">
-        <v>1</v>
-      </c>
-      <c r="AV21">
-        <v>10</v>
-      </c>
-      <c r="AW21">
-        <v>0.2</v>
-      </c>
-      <c r="AX21">
-        <v>2</v>
-      </c>
-      <c r="AY21">
-        <v>0.4</v>
-      </c>
-      <c r="AZ21">
-        <v>4</v>
-      </c>
-      <c r="BA21">
-        <v>0.8</v>
-      </c>
-      <c r="BB21">
-        <v>8</v>
-      </c>
-      <c r="BC21">
-        <v>1</v>
-      </c>
-      <c r="BD21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>988</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>988</v>
-      </c>
-      <c r="E22" t="s">
-        <v>916</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.8</v>
-      </c>
-      <c r="M22">
-        <v>1.2</v>
-      </c>
-      <c r="N22">
-        <v>0.02</v>
-      </c>
-      <c r="O22">
-        <v>-0.1</v>
-      </c>
-      <c r="P22">
-        <v>0.1</v>
-      </c>
-      <c r="Q22">
-        <v>20</v>
-      </c>
-      <c r="R22">
-        <v>999</v>
-      </c>
-      <c r="S22">
-        <v>-999</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>-2</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>0.02</v>
-      </c>
-      <c r="Y22">
-        <v>999</v>
-      </c>
-      <c r="Z22">
-        <v>-999</v>
-      </c>
-      <c r="AA22">
-        <v>999</v>
-      </c>
-      <c r="AB22">
-        <v>-999</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>0.02</v>
-      </c>
-      <c r="AI22">
-        <v>999</v>
-      </c>
-      <c r="AJ22">
-        <v>-999</v>
-      </c>
-      <c r="AK22">
-        <v>999</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>10</v>
-      </c>
-      <c r="AN22">
-        <v>0.02</v>
-      </c>
-      <c r="AO22">
-        <v>0.2</v>
-      </c>
-      <c r="AP22">
-        <v>2</v>
-      </c>
-      <c r="AQ22">
-        <v>0.4</v>
-      </c>
-      <c r="AR22">
-        <v>4</v>
-      </c>
-      <c r="AS22">
-        <v>0.8</v>
-      </c>
-      <c r="AT22">
-        <v>8</v>
-      </c>
-      <c r="AU22">
-        <v>1</v>
-      </c>
-      <c r="AV22">
-        <v>10</v>
-      </c>
-      <c r="AW22">
-        <v>0.2</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
-      </c>
-      <c r="AY22">
-        <v>0.4</v>
-      </c>
-      <c r="AZ22">
-        <v>4</v>
-      </c>
-      <c r="BA22">
-        <v>0.8</v>
-      </c>
-      <c r="BB22">
-        <v>8</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>989</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>989</v>
-      </c>
-      <c r="E23" t="s">
-        <v>917</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.8</v>
-      </c>
-      <c r="M23">
-        <v>1.2</v>
-      </c>
-      <c r="N23">
-        <v>0.02</v>
-      </c>
-      <c r="O23">
-        <v>-0.1</v>
-      </c>
-      <c r="P23">
-        <v>0.1</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-      <c r="R23">
-        <v>999</v>
-      </c>
-      <c r="S23">
-        <v>-999</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>-2</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>0.02</v>
-      </c>
-      <c r="Y23">
-        <v>999</v>
-      </c>
-      <c r="Z23">
-        <v>-999</v>
-      </c>
-      <c r="AA23">
-        <v>999</v>
-      </c>
-      <c r="AB23">
-        <v>-999</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>0.02</v>
-      </c>
-      <c r="AI23">
-        <v>999</v>
-      </c>
-      <c r="AJ23">
-        <v>-999</v>
-      </c>
-      <c r="AK23">
-        <v>999</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>10</v>
-      </c>
-      <c r="AN23">
-        <v>0.02</v>
-      </c>
-      <c r="AO23">
-        <v>0.2</v>
-      </c>
-      <c r="AP23">
-        <v>2</v>
-      </c>
-      <c r="AQ23">
-        <v>0.4</v>
-      </c>
-      <c r="AR23">
-        <v>4</v>
-      </c>
-      <c r="AS23">
-        <v>0.8</v>
-      </c>
-      <c r="AT23">
-        <v>8</v>
-      </c>
-      <c r="AU23">
-        <v>1</v>
-      </c>
-      <c r="AV23">
-        <v>10</v>
-      </c>
-      <c r="AW23">
-        <v>0.2</v>
-      </c>
-      <c r="AX23">
-        <v>2</v>
-      </c>
-      <c r="AY23">
-        <v>0.4</v>
-      </c>
-      <c r="AZ23">
-        <v>4</v>
-      </c>
-      <c r="BA23">
-        <v>0.8</v>
-      </c>
-      <c r="BB23">
-        <v>8</v>
-      </c>
-      <c r="BC23">
-        <v>1</v>
-      </c>
-      <c r="BD23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>990</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>990</v>
-      </c>
-      <c r="E24" t="s">
-        <v>918</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.8</v>
-      </c>
-      <c r="M24">
-        <v>1.2</v>
-      </c>
-      <c r="N24">
-        <v>0.02</v>
-      </c>
-      <c r="O24">
-        <v>-0.1</v>
-      </c>
-      <c r="P24">
-        <v>0.1</v>
-      </c>
-      <c r="Q24">
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <v>999</v>
-      </c>
-      <c r="S24">
-        <v>-999</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>-2</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0.02</v>
-      </c>
-      <c r="Y24">
-        <v>999</v>
-      </c>
-      <c r="Z24">
-        <v>-999</v>
-      </c>
-      <c r="AA24">
-        <v>999</v>
-      </c>
-      <c r="AB24">
-        <v>-999</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>0.02</v>
-      </c>
-      <c r="AI24">
-        <v>999</v>
-      </c>
-      <c r="AJ24">
-        <v>-999</v>
-      </c>
-      <c r="AK24">
-        <v>999</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>10</v>
-      </c>
-      <c r="AN24">
-        <v>0.02</v>
-      </c>
-      <c r="AO24">
-        <v>0.2</v>
-      </c>
-      <c r="AP24">
-        <v>2</v>
-      </c>
-      <c r="AQ24">
-        <v>0.4</v>
-      </c>
-      <c r="AR24">
-        <v>4</v>
-      </c>
-      <c r="AS24">
-        <v>0.8</v>
-      </c>
-      <c r="AT24">
-        <v>8</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AV24">
-        <v>10</v>
-      </c>
-      <c r="AW24">
-        <v>0.2</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
-      </c>
-      <c r="AY24">
-        <v>0.4</v>
-      </c>
-      <c r="AZ24">
-        <v>4</v>
-      </c>
-      <c r="BA24">
-        <v>0.8</v>
-      </c>
-      <c r="BB24">
-        <v>8</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-      <c r="BD24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>991</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>991</v>
-      </c>
-      <c r="E25" t="s">
-        <v>919</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0.8</v>
-      </c>
-      <c r="M25">
-        <v>1.2</v>
-      </c>
-      <c r="N25">
-        <v>0.02</v>
-      </c>
-      <c r="O25">
-        <v>-0.1</v>
-      </c>
-      <c r="P25">
-        <v>0.1</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
-      </c>
-      <c r="R25">
-        <v>999</v>
-      </c>
-      <c r="S25">
-        <v>-999</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>-2</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0.02</v>
-      </c>
-      <c r="Y25">
-        <v>999</v>
-      </c>
-      <c r="Z25">
-        <v>-999</v>
-      </c>
-      <c r="AA25">
-        <v>999</v>
-      </c>
-      <c r="AB25">
-        <v>-999</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>0.02</v>
-      </c>
-      <c r="AI25">
-        <v>999</v>
-      </c>
-      <c r="AJ25">
-        <v>-999</v>
-      </c>
-      <c r="AK25">
-        <v>999</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>10</v>
-      </c>
-      <c r="AN25">
-        <v>0.02</v>
-      </c>
-      <c r="AO25">
-        <v>0.2</v>
-      </c>
-      <c r="AP25">
-        <v>2</v>
-      </c>
-      <c r="AQ25">
-        <v>0.4</v>
-      </c>
-      <c r="AR25">
-        <v>4</v>
-      </c>
-      <c r="AS25">
-        <v>0.8</v>
-      </c>
-      <c r="AT25">
-        <v>8</v>
-      </c>
-      <c r="AU25">
-        <v>1</v>
-      </c>
-      <c r="AV25">
-        <v>10</v>
-      </c>
-      <c r="AW25">
-        <v>0.2</v>
-      </c>
-      <c r="AX25">
-        <v>2</v>
-      </c>
-      <c r="AY25">
-        <v>0.4</v>
-      </c>
-      <c r="AZ25">
-        <v>4</v>
-      </c>
-      <c r="BA25">
-        <v>0.8</v>
-      </c>
-      <c r="BB25">
-        <v>8</v>
-      </c>
-      <c r="BC25">
-        <v>1</v>
-      </c>
-      <c r="BD25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>992</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>992</v>
-      </c>
-      <c r="E26" t="s">
-        <v>920</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>1.2</v>
-      </c>
-      <c r="N26">
-        <v>0.02</v>
-      </c>
-      <c r="O26">
-        <v>-0.1</v>
-      </c>
-      <c r="P26">
-        <v>0.1</v>
-      </c>
-      <c r="Q26">
-        <v>20</v>
-      </c>
-      <c r="R26">
-        <v>999</v>
-      </c>
-      <c r="S26">
-        <v>-999</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>-2</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0.02</v>
-      </c>
-      <c r="Y26">
-        <v>999</v>
-      </c>
-      <c r="Z26">
-        <v>-999</v>
-      </c>
-      <c r="AA26">
-        <v>999</v>
-      </c>
-      <c r="AB26">
-        <v>-999</v>
-      </c>
-      <c r="AC26">
-        <v>1</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>0.02</v>
-      </c>
-      <c r="AI26">
-        <v>999</v>
-      </c>
-      <c r="AJ26">
-        <v>-999</v>
-      </c>
-      <c r="AK26">
-        <v>999</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>10</v>
-      </c>
-      <c r="AN26">
-        <v>0.02</v>
-      </c>
-      <c r="AO26">
-        <v>0.2</v>
-      </c>
-      <c r="AP26">
-        <v>2</v>
-      </c>
-      <c r="AQ26">
-        <v>0.4</v>
-      </c>
-      <c r="AR26">
-        <v>4</v>
-      </c>
-      <c r="AS26">
-        <v>0.8</v>
-      </c>
-      <c r="AT26">
-        <v>8</v>
-      </c>
-      <c r="AU26">
-        <v>1</v>
-      </c>
-      <c r="AV26">
-        <v>10</v>
-      </c>
-      <c r="AW26">
-        <v>0.2</v>
-      </c>
-      <c r="AX26">
-        <v>2</v>
-      </c>
-      <c r="AY26">
-        <v>0.4</v>
-      </c>
-      <c r="AZ26">
-        <v>4</v>
-      </c>
-      <c r="BA26">
-        <v>0.8</v>
-      </c>
-      <c r="BB26">
-        <v>8</v>
-      </c>
-      <c r="BC26">
-        <v>1</v>
-      </c>
-      <c r="BD26">
         <v>12</v>
       </c>
     </row>
@@ -22285,7 +19809,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22308,61 +19832,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>930</v>
@@ -22371,46 +19895,46 @@
         <v>931</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>939</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -22418,13 +19942,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -22525,19 +20049,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
       </c>
       <c r="F3" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -22632,19 +20156,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
       </c>
       <c r="F4" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -22739,19 +20263,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
       </c>
       <c r="F5" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -22846,19 +20370,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
       </c>
       <c r="F6" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -22953,19 +20477,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
       </c>
       <c r="F7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -23060,19 +20584,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -23167,19 +20691,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
       </c>
       <c r="F9" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -23274,19 +20798,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
       </c>
       <c r="F10" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -23381,19 +20905,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -23488,19 +21012,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
       </c>
       <c r="F12" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -23587,1504 +21111,6 @@
         <v>10</v>
       </c>
       <c r="AM12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13" t="s">
-        <v>625</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.02</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>0.8</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>999</v>
-      </c>
-      <c r="W13">
-        <v>-999</v>
-      </c>
-      <c r="X13">
-        <v>-0.1</v>
-      </c>
-      <c r="Y13">
-        <v>0.1</v>
-      </c>
-      <c r="Z13">
-        <v>999</v>
-      </c>
-      <c r="AA13">
-        <v>-999</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>0.1</v>
-      </c>
-      <c r="AD13">
-        <v>0.02</v>
-      </c>
-      <c r="AE13">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF13">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG13">
-        <v>0.05</v>
-      </c>
-      <c r="AH13">
-        <v>-0.05</v>
-      </c>
-      <c r="AI13">
-        <v>999</v>
-      </c>
-      <c r="AJ13">
-        <v>-999</v>
-      </c>
-      <c r="AK13">
-        <v>0.02</v>
-      </c>
-      <c r="AL13">
-        <v>10</v>
-      </c>
-      <c r="AM13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E14" t="s">
-        <v>980</v>
-      </c>
-      <c r="F14" t="s">
-        <v>628</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0.02</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0.1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>0.8</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>999</v>
-      </c>
-      <c r="W14">
-        <v>-999</v>
-      </c>
-      <c r="X14">
-        <v>-0.1</v>
-      </c>
-      <c r="Y14">
-        <v>0.1</v>
-      </c>
-      <c r="Z14">
-        <v>999</v>
-      </c>
-      <c r="AA14">
-        <v>-999</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>0.1</v>
-      </c>
-      <c r="AD14">
-        <v>0.02</v>
-      </c>
-      <c r="AE14">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF14">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG14">
-        <v>0.05</v>
-      </c>
-      <c r="AH14">
-        <v>-0.05</v>
-      </c>
-      <c r="AI14">
-        <v>999</v>
-      </c>
-      <c r="AJ14">
-        <v>-999</v>
-      </c>
-      <c r="AK14">
-        <v>0.02</v>
-      </c>
-      <c r="AL14">
-        <v>10</v>
-      </c>
-      <c r="AM14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E15" t="s">
-        <v>981</v>
-      </c>
-      <c r="F15" t="s">
-        <v>629</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0.02</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0.1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>0.8</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>999</v>
-      </c>
-      <c r="W15">
-        <v>-999</v>
-      </c>
-      <c r="X15">
-        <v>-0.1</v>
-      </c>
-      <c r="Y15">
-        <v>0.1</v>
-      </c>
-      <c r="Z15">
-        <v>999</v>
-      </c>
-      <c r="AA15">
-        <v>-999</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>0.1</v>
-      </c>
-      <c r="AD15">
-        <v>0.02</v>
-      </c>
-      <c r="AE15">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF15">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG15">
-        <v>0.05</v>
-      </c>
-      <c r="AH15">
-        <v>-0.05</v>
-      </c>
-      <c r="AI15">
-        <v>999</v>
-      </c>
-      <c r="AJ15">
-        <v>-999</v>
-      </c>
-      <c r="AK15">
-        <v>0.02</v>
-      </c>
-      <c r="AL15">
-        <v>10</v>
-      </c>
-      <c r="AM15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E16" t="s">
-        <v>982</v>
-      </c>
-      <c r="F16" t="s">
-        <v>630</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0.02</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0.1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>0.8</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>999</v>
-      </c>
-      <c r="W16">
-        <v>-999</v>
-      </c>
-      <c r="X16">
-        <v>-0.1</v>
-      </c>
-      <c r="Y16">
-        <v>0.1</v>
-      </c>
-      <c r="Z16">
-        <v>999</v>
-      </c>
-      <c r="AA16">
-        <v>-999</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>0.1</v>
-      </c>
-      <c r="AD16">
-        <v>0.02</v>
-      </c>
-      <c r="AE16">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF16">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG16">
-        <v>0.05</v>
-      </c>
-      <c r="AH16">
-        <v>-0.05</v>
-      </c>
-      <c r="AI16">
-        <v>999</v>
-      </c>
-      <c r="AJ16">
-        <v>-999</v>
-      </c>
-      <c r="AK16">
-        <v>0.02</v>
-      </c>
-      <c r="AL16">
-        <v>10</v>
-      </c>
-      <c r="AM16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E17" t="s">
-        <v>983</v>
-      </c>
-      <c r="F17" t="s">
-        <v>633</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0.02</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>0.8</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>999</v>
-      </c>
-      <c r="W17">
-        <v>-999</v>
-      </c>
-      <c r="X17">
-        <v>-0.1</v>
-      </c>
-      <c r="Y17">
-        <v>0.1</v>
-      </c>
-      <c r="Z17">
-        <v>999</v>
-      </c>
-      <c r="AA17">
-        <v>-999</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0.1</v>
-      </c>
-      <c r="AD17">
-        <v>0.02</v>
-      </c>
-      <c r="AE17">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF17">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG17">
-        <v>0.05</v>
-      </c>
-      <c r="AH17">
-        <v>-0.05</v>
-      </c>
-      <c r="AI17">
-        <v>999</v>
-      </c>
-      <c r="AJ17">
-        <v>-999</v>
-      </c>
-      <c r="AK17">
-        <v>0.02</v>
-      </c>
-      <c r="AL17">
-        <v>10</v>
-      </c>
-      <c r="AM17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E18" t="s">
-        <v>984</v>
-      </c>
-      <c r="F18" t="s">
-        <v>634</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0.02</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0.1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0.8</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>999</v>
-      </c>
-      <c r="W18">
-        <v>-999</v>
-      </c>
-      <c r="X18">
-        <v>-0.1</v>
-      </c>
-      <c r="Y18">
-        <v>0.1</v>
-      </c>
-      <c r="Z18">
-        <v>999</v>
-      </c>
-      <c r="AA18">
-        <v>-999</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0.1</v>
-      </c>
-      <c r="AD18">
-        <v>0.02</v>
-      </c>
-      <c r="AE18">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF18">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG18">
-        <v>0.05</v>
-      </c>
-      <c r="AH18">
-        <v>-0.05</v>
-      </c>
-      <c r="AI18">
-        <v>999</v>
-      </c>
-      <c r="AJ18">
-        <v>-999</v>
-      </c>
-      <c r="AK18">
-        <v>0.02</v>
-      </c>
-      <c r="AL18">
-        <v>10</v>
-      </c>
-      <c r="AM18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E19" t="s">
-        <v>985</v>
-      </c>
-      <c r="F19" t="s">
-        <v>635</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.02</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0.1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>0.8</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>999</v>
-      </c>
-      <c r="W19">
-        <v>-999</v>
-      </c>
-      <c r="X19">
-        <v>-0.1</v>
-      </c>
-      <c r="Y19">
-        <v>0.1</v>
-      </c>
-      <c r="Z19">
-        <v>999</v>
-      </c>
-      <c r="AA19">
-        <v>-999</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0.1</v>
-      </c>
-      <c r="AD19">
-        <v>0.02</v>
-      </c>
-      <c r="AE19">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF19">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG19">
-        <v>0.05</v>
-      </c>
-      <c r="AH19">
-        <v>-0.05</v>
-      </c>
-      <c r="AI19">
-        <v>999</v>
-      </c>
-      <c r="AJ19">
-        <v>-999</v>
-      </c>
-      <c r="AK19">
-        <v>0.02</v>
-      </c>
-      <c r="AL19">
-        <v>10</v>
-      </c>
-      <c r="AM19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E20" t="s">
-        <v>986</v>
-      </c>
-      <c r="F20" t="s">
-        <v>636</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0.02</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0.1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0.8</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>999</v>
-      </c>
-      <c r="W20">
-        <v>-999</v>
-      </c>
-      <c r="X20">
-        <v>-0.1</v>
-      </c>
-      <c r="Y20">
-        <v>0.1</v>
-      </c>
-      <c r="Z20">
-        <v>999</v>
-      </c>
-      <c r="AA20">
-        <v>-999</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>0.1</v>
-      </c>
-      <c r="AD20">
-        <v>0.02</v>
-      </c>
-      <c r="AE20">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF20">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG20">
-        <v>0.05</v>
-      </c>
-      <c r="AH20">
-        <v>-0.05</v>
-      </c>
-      <c r="AI20">
-        <v>999</v>
-      </c>
-      <c r="AJ20">
-        <v>-999</v>
-      </c>
-      <c r="AK20">
-        <v>0.02</v>
-      </c>
-      <c r="AL20">
-        <v>10</v>
-      </c>
-      <c r="AM20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E21" t="s">
-        <v>987</v>
-      </c>
-      <c r="F21" t="s">
-        <v>638</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.02</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0.1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>0.8</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>999</v>
-      </c>
-      <c r="W21">
-        <v>-999</v>
-      </c>
-      <c r="X21">
-        <v>-0.1</v>
-      </c>
-      <c r="Y21">
-        <v>0.1</v>
-      </c>
-      <c r="Z21">
-        <v>999</v>
-      </c>
-      <c r="AA21">
-        <v>-999</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>0.1</v>
-      </c>
-      <c r="AD21">
-        <v>0.02</v>
-      </c>
-      <c r="AE21">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF21">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG21">
-        <v>0.05</v>
-      </c>
-      <c r="AH21">
-        <v>-0.05</v>
-      </c>
-      <c r="AI21">
-        <v>999</v>
-      </c>
-      <c r="AJ21">
-        <v>-999</v>
-      </c>
-      <c r="AK21">
-        <v>0.02</v>
-      </c>
-      <c r="AL21">
-        <v>10</v>
-      </c>
-      <c r="AM21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E22" t="s">
-        <v>988</v>
-      </c>
-      <c r="F22" t="s">
-        <v>640</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0.02</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0.1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>0.8</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>999</v>
-      </c>
-      <c r="W22">
-        <v>-999</v>
-      </c>
-      <c r="X22">
-        <v>-0.1</v>
-      </c>
-      <c r="Y22">
-        <v>0.1</v>
-      </c>
-      <c r="Z22">
-        <v>999</v>
-      </c>
-      <c r="AA22">
-        <v>-999</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>0.1</v>
-      </c>
-      <c r="AD22">
-        <v>0.02</v>
-      </c>
-      <c r="AE22">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF22">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG22">
-        <v>0.05</v>
-      </c>
-      <c r="AH22">
-        <v>-0.05</v>
-      </c>
-      <c r="AI22">
-        <v>999</v>
-      </c>
-      <c r="AJ22">
-        <v>-999</v>
-      </c>
-      <c r="AK22">
-        <v>0.02</v>
-      </c>
-      <c r="AL22">
-        <v>10</v>
-      </c>
-      <c r="AM22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E23" t="s">
-        <v>989</v>
-      </c>
-      <c r="F23" t="s">
-        <v>647</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.02</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0.1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>0.8</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>999</v>
-      </c>
-      <c r="W23">
-        <v>-999</v>
-      </c>
-      <c r="X23">
-        <v>-0.1</v>
-      </c>
-      <c r="Y23">
-        <v>0.1</v>
-      </c>
-      <c r="Z23">
-        <v>999</v>
-      </c>
-      <c r="AA23">
-        <v>-999</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>0.1</v>
-      </c>
-      <c r="AD23">
-        <v>0.02</v>
-      </c>
-      <c r="AE23">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF23">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG23">
-        <v>0.05</v>
-      </c>
-      <c r="AH23">
-        <v>-0.05</v>
-      </c>
-      <c r="AI23">
-        <v>999</v>
-      </c>
-      <c r="AJ23">
-        <v>-999</v>
-      </c>
-      <c r="AK23">
-        <v>0.02</v>
-      </c>
-      <c r="AL23">
-        <v>10</v>
-      </c>
-      <c r="AM23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E24" t="s">
-        <v>990</v>
-      </c>
-      <c r="F24" t="s">
-        <v>648</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0.02</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0.1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>0.8</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>999</v>
-      </c>
-      <c r="W24">
-        <v>-999</v>
-      </c>
-      <c r="X24">
-        <v>-0.1</v>
-      </c>
-      <c r="Y24">
-        <v>0.1</v>
-      </c>
-      <c r="Z24">
-        <v>999</v>
-      </c>
-      <c r="AA24">
-        <v>-999</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>0.1</v>
-      </c>
-      <c r="AD24">
-        <v>0.02</v>
-      </c>
-      <c r="AE24">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF24">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG24">
-        <v>0.05</v>
-      </c>
-      <c r="AH24">
-        <v>-0.05</v>
-      </c>
-      <c r="AI24">
-        <v>999</v>
-      </c>
-      <c r="AJ24">
-        <v>-999</v>
-      </c>
-      <c r="AK24">
-        <v>0.02</v>
-      </c>
-      <c r="AL24">
-        <v>10</v>
-      </c>
-      <c r="AM24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E25" t="s">
-        <v>991</v>
-      </c>
-      <c r="F25" t="s">
-        <v>651</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0.02</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0.1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>0.8</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>999</v>
-      </c>
-      <c r="W25">
-        <v>-999</v>
-      </c>
-      <c r="X25">
-        <v>-0.1</v>
-      </c>
-      <c r="Y25">
-        <v>0.1</v>
-      </c>
-      <c r="Z25">
-        <v>999</v>
-      </c>
-      <c r="AA25">
-        <v>-999</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>0.1</v>
-      </c>
-      <c r="AD25">
-        <v>0.02</v>
-      </c>
-      <c r="AE25">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF25">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG25">
-        <v>0.05</v>
-      </c>
-      <c r="AH25">
-        <v>-0.05</v>
-      </c>
-      <c r="AI25">
-        <v>999</v>
-      </c>
-      <c r="AJ25">
-        <v>-999</v>
-      </c>
-      <c r="AK25">
-        <v>0.02</v>
-      </c>
-      <c r="AL25">
-        <v>10</v>
-      </c>
-      <c r="AM25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E26" t="s">
-        <v>992</v>
-      </c>
-      <c r="F26" t="s">
-        <v>652</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0.02</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0.1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0.8</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>999</v>
-      </c>
-      <c r="W26">
-        <v>-999</v>
-      </c>
-      <c r="X26">
-        <v>-0.1</v>
-      </c>
-      <c r="Y26">
-        <v>0.1</v>
-      </c>
-      <c r="Z26">
-        <v>999</v>
-      </c>
-      <c r="AA26">
-        <v>-999</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>0.1</v>
-      </c>
-      <c r="AD26">
-        <v>0.02</v>
-      </c>
-      <c r="AE26">
-        <v>-2.833E-4</v>
-      </c>
-      <c r="AF26">
-        <v>2.833E-4</v>
-      </c>
-      <c r="AG26">
-        <v>0.05</v>
-      </c>
-      <c r="AH26">
-        <v>-0.05</v>
-      </c>
-      <c r="AI26">
-        <v>999</v>
-      </c>
-      <c r="AJ26">
-        <v>-999</v>
-      </c>
-      <c r="AK26">
-        <v>0.02</v>
-      </c>
-      <c r="AL26">
-        <v>10</v>
-      </c>
-      <c r="AM26">
         <v>10</v>
       </c>
     </row>
@@ -25095,7 +21121,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25118,16 +21144,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -25135,13 +21161,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="E2" t="s">
         <v>968</v>
@@ -25161,13 +21187,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="E3" t="s">
         <v>969</v>
@@ -25187,13 +21213,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="E4" t="s">
         <v>970</v>
@@ -25213,13 +21239,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="E5" t="s">
         <v>971</v>
@@ -25239,13 +21265,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="E6" t="s">
         <v>972</v>
@@ -25265,13 +21291,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="E7" t="s">
         <v>973</v>
@@ -25291,13 +21317,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="E8" t="s">
         <v>974</v>
@@ -25317,13 +21343,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="E9" t="s">
         <v>975</v>
@@ -25343,13 +21369,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="E10" t="s">
         <v>976</v>
@@ -25369,13 +21395,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="E11" t="s">
         <v>977</v>
@@ -25395,13 +21421,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="E12" t="s">
         <v>978</v>
@@ -25413,370 +21439,6 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E13" t="s">
-        <v>979</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E14" t="s">
-        <v>980</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E15" t="s">
-        <v>981</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E16" t="s">
-        <v>982</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E17" t="s">
-        <v>983</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E18" t="s">
-        <v>984</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E19" t="s">
-        <v>985</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E20" t="s">
-        <v>986</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E21" t="s">
-        <v>987</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E22" t="s">
-        <v>988</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E23" t="s">
-        <v>989</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E24" t="s">
-        <v>990</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E25" t="s">
-        <v>991</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E26" t="s">
-        <v>992</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -53522,7 +49184,7 @@
         <v>683</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>683</v>
@@ -53611,7 +49273,7 @@
         <v>684</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>684</v>
@@ -53700,7 +49362,7 @@
         <v>685</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>685</v>
@@ -54412,7 +50074,7 @@
         <v>693</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>693</v>
@@ -55747,7 +51409,7 @@
         <v>708</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>708</v>
@@ -55836,7 +51498,7 @@
         <v>709</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>709</v>
@@ -55925,7 +51587,7 @@
         <v>710</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>710</v>
@@ -56014,7 +51676,7 @@
         <v>711</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>711</v>
@@ -56815,7 +52477,7 @@
         <v>720</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>720</v>
@@ -56904,7 +52566,7 @@
         <v>721</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>721</v>
@@ -57628,7 +53290,7 @@
         <v>742</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>742</v>
@@ -57672,7 +53334,7 @@
         <v>743</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>743</v>
@@ -57716,7 +53378,7 @@
         <v>744</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>744</v>
@@ -58068,7 +53730,7 @@
         <v>752</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>752</v>
@@ -58728,7 +54390,7 @@
         <v>767</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>767</v>
@@ -58772,7 +54434,7 @@
         <v>768</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>768</v>
@@ -58816,7 +54478,7 @@
         <v>769</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>769</v>
@@ -58860,7 +54522,7 @@
         <v>770</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>770</v>
@@ -58904,7 +54566,7 @@
         <v>771</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>771</v>
@@ -58992,7 +54654,7 @@
         <v>773</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>773</v>
@@ -59256,7 +54918,7 @@
         <v>779</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>779</v>
@@ -59300,7 +54962,7 @@
         <v>780</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>780</v>
@@ -59388,7 +55050,7 @@
         <v>782</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>782</v>
@@ -59432,7 +55094,7 @@
         <v>783</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>783</v>

--- a/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
+++ b/ACTIVSg200/4.IL200_dyn_50wt_ts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3527EA8B-9275-2749-99D2-DE0269ED2181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C739C5-CEDF-564D-8129-CF986CB10277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1034">
   <si>
     <t>idx</t>
   </si>
@@ -2501,6 +2501,9 @@
   </si>
   <si>
     <t>IEEEG1_20</t>
+  </si>
+  <si>
+    <t>IEEEG1_21</t>
   </si>
   <si>
     <t>KT</t>
@@ -12375,11 +12378,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC11" sqref="AC11"/>
+      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12470,7 +12473,7 @@
         <v>801</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -12487,7 +12490,7 @@
         <v>802</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12496,13 +12499,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>0.32031900000000002</v>
+        <v>0.27889199999999997</v>
       </c>
       <c r="K2">
-        <v>2.1</v>
+        <v>2.5094400000000001</v>
       </c>
       <c r="L2">
         <v>0.1</v>
@@ -12529,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6.3000600000000002</v>
+        <v>7.52841</v>
       </c>
       <c r="U2">
         <v>0.5</v>
@@ -12556,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -12573,7 +12576,7 @@
         <v>803</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -12582,13 +12585,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>0.32031900000000002</v>
       </c>
       <c r="K3">
-        <v>2.50874</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
         <v>0.1</v>
@@ -12615,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7.5263</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="U3">
         <v>0.5</v>
@@ -12642,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -12659,7 +12662,7 @@
         <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -12668,13 +12671,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2.50874</v>
       </c>
       <c r="L4">
         <v>0.1</v>
@@ -12701,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.0000900000000001</v>
+        <v>7.5263</v>
       </c>
       <c r="U4">
         <v>0.5</v>
@@ -12728,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -12745,7 +12748,7 @@
         <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12754,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -12814,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -12831,7 +12834,7 @@
         <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -12840,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -12900,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -12917,7 +12920,7 @@
         <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12932,7 +12935,7 @@
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0.1</v>
@@ -12959,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U7">
         <v>0.5</v>
@@ -12986,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -13003,7 +13006,7 @@
         <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -13012,10 +13015,10 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>0.29399199999999998</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -13072,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -13089,7 +13092,7 @@
         <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13101,10 +13104,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.385075</v>
+        <v>0.29399199999999998</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
         <v>0.1</v>
@@ -13131,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9.0000900000000001</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0.5</v>
@@ -13158,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -13175,7 +13178,7 @@
         <v>810</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -13187,7 +13190,7 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.20569599999999999</v>
+        <v>0.385075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -13244,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -13261,7 +13264,7 @@
         <v>811</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -13273,7 +13276,7 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.41585</v>
+        <v>0.20569599999999999</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -13330,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -13347,7 +13350,7 @@
         <v>812</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -13359,7 +13362,7 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.41585</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -13416,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -13433,7 +13436,7 @@
         <v>813</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -13502,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -13519,7 +13522,7 @@
         <v>814</v>
       </c>
       <c r="E14" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -13588,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -13605,7 +13608,7 @@
         <v>815</v>
       </c>
       <c r="E15" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -13620,7 +13623,7 @@
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.71988200000000002</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>0.1</v>
@@ -13647,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2.39961</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U15">
         <v>0.5</v>
@@ -13674,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -13691,7 +13694,7 @@
         <v>816</v>
       </c>
       <c r="E16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -13700,13 +13703,13 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>0.5</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>0.71988200000000002</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -13733,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9.0000900000000001</v>
+        <v>2.39961</v>
       </c>
       <c r="U16">
         <v>0.5</v>
@@ -13760,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -13777,7 +13780,7 @@
         <v>817</v>
       </c>
       <c r="E17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -13786,13 +13789,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>0.1</v>
@@ -13819,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6.3000600000000002</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U17">
         <v>0.5</v>
@@ -13846,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -13863,7 +13866,7 @@
         <v>818</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -13872,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>0.5</v>
@@ -13905,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>6.3000600000000002</v>
       </c>
       <c r="U18">
         <v>0.5</v>
@@ -13932,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -13949,7 +13952,7 @@
         <v>819</v>
       </c>
       <c r="E19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -13958,13 +13961,13 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>0.5</v>
       </c>
       <c r="K19">
-        <v>2.7096100000000001</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
         <v>0.1</v>
@@ -13991,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8.1289099999999994</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <v>0.5</v>
@@ -14018,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -14035,7 +14038,7 @@
         <v>820</v>
       </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -14050,7 +14053,7 @@
         <v>0.5</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2.7096100000000001</v>
       </c>
       <c r="L20">
         <v>0.1</v>
@@ -14077,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9.0000900000000001</v>
+        <v>8.1289099999999994</v>
       </c>
       <c r="U20">
         <v>0.5</v>
@@ -14104,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -14121,7 +14124,7 @@
         <v>821</v>
       </c>
       <c r="E21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -14130,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <v>0.5</v>
@@ -14163,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>9.0000900000000001</v>
       </c>
       <c r="U21">
         <v>0.5</v>
@@ -14190,7 +14193,93 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>200</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>822</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>822</v>
+      </c>
+      <c r="E22" t="s">
+        <v>721</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <v>0.1</v>
+      </c>
+      <c r="N22">
+        <v>-0.1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.4</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0.05</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -14241,10 +14330,10 @@
         <v>730</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>731</v>
@@ -14264,13 +14353,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E2" t="s">
         <v>689</v>
@@ -14314,13 +14403,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E3" t="s">
         <v>690</v>
@@ -14364,13 +14453,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E4" t="s">
         <v>691</v>
@@ -14414,13 +14503,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E5" t="s">
         <v>692</v>
@@ -14464,13 +14553,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E6" t="s">
         <v>693</v>
@@ -14514,13 +14603,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E7" t="s">
         <v>694</v>
@@ -14564,13 +14653,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E8" t="s">
         <v>695</v>
@@ -14614,13 +14703,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E9" t="s">
         <v>712</v>
@@ -14664,13 +14753,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E10" t="s">
         <v>713</v>
@@ -14714,13 +14803,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E11" t="s">
         <v>714</v>
@@ -14764,13 +14853,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E12" t="s">
         <v>715</v>
@@ -14814,13 +14903,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E13" t="s">
         <v>716</v>
@@ -14864,13 +14953,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E14" t="s">
         <v>717</v>
@@ -14914,13 +15003,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E15" t="s">
         <v>718</v>
@@ -14964,13 +15053,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E16" t="s">
         <v>719</v>
@@ -15014,13 +15103,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E17" t="s">
         <v>723</v>
@@ -15064,13 +15153,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E18" t="s">
         <v>724</v>
@@ -15142,22 +15231,22 @@
         <v>725</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>785</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -15165,13 +15254,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
         <v>676</v>
@@ -15200,13 +15289,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E3" t="s">
         <v>677</v>
@@ -15235,13 +15324,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E4" t="s">
         <v>678</v>
@@ -15270,13 +15359,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E5" t="s">
         <v>679</v>
@@ -15305,13 +15394,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E6" t="s">
         <v>680</v>
@@ -15340,13 +15429,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E7" t="s">
         <v>681</v>
@@ -15375,13 +15464,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E8" t="s">
         <v>682</v>
@@ -15410,13 +15499,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E9" t="s">
         <v>683</v>
@@ -15445,13 +15534,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E10" t="s">
         <v>684</v>
@@ -15480,13 +15569,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E11" t="s">
         <v>685</v>
@@ -15515,13 +15604,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E12" t="s">
         <v>686</v>
@@ -15550,13 +15639,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E13" t="s">
         <v>687</v>
@@ -15585,13 +15674,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E14" t="s">
         <v>688</v>
@@ -15620,13 +15709,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E15" t="s">
         <v>689</v>
@@ -15655,13 +15744,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E16" t="s">
         <v>690</v>
@@ -15690,13 +15779,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E17" t="s">
         <v>691</v>
@@ -15725,13 +15814,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E18" t="s">
         <v>692</v>
@@ -15760,13 +15849,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E19" t="s">
         <v>693</v>
@@ -15795,13 +15884,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E20" t="s">
         <v>694</v>
@@ -15830,13 +15919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E21" t="s">
         <v>695</v>
@@ -15865,13 +15954,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E22" t="s">
         <v>696</v>
@@ -15900,13 +15989,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E23" t="s">
         <v>697</v>
@@ -15935,13 +16024,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E24" t="s">
         <v>698</v>
@@ -15970,13 +16059,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E25" t="s">
         <v>699</v>
@@ -16005,13 +16094,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E26" t="s">
         <v>700</v>
@@ -16040,13 +16129,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E27" t="s">
         <v>701</v>
@@ -16075,13 +16164,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E28" t="s">
         <v>702</v>
@@ -16110,13 +16199,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E29" t="s">
         <v>703</v>
@@ -16145,13 +16234,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E30" t="s">
         <v>704</v>
@@ -16180,13 +16269,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E31" t="s">
         <v>705</v>
@@ -16215,13 +16304,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E32" t="s">
         <v>706</v>
@@ -16250,13 +16339,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E33" t="s">
         <v>707</v>
@@ -16285,13 +16374,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E34" t="s">
         <v>708</v>
@@ -16320,13 +16409,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E35" t="s">
         <v>709</v>
@@ -16355,13 +16444,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E36" t="s">
         <v>710</v>
@@ -16390,13 +16479,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E37" t="s">
         <v>711</v>
@@ -16425,13 +16514,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E38" t="s">
         <v>712</v>
@@ -16460,13 +16549,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E39" t="s">
         <v>713</v>
@@ -16495,13 +16584,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E40" t="s">
         <v>714</v>
@@ -16530,13 +16619,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E41" t="s">
         <v>715</v>
@@ -16565,13 +16654,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E42" t="s">
         <v>716</v>
@@ -16600,13 +16689,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E43" t="s">
         <v>717</v>
@@ -16635,13 +16724,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E44" t="s">
         <v>718</v>
@@ -16670,13 +16759,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E45" t="s">
         <v>719</v>
@@ -16705,13 +16794,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E46" t="s">
         <v>720</v>
@@ -16740,13 +16829,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E47" t="s">
         <v>721</v>
@@ -16775,13 +16864,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E48" t="s">
         <v>722</v>
@@ -16810,13 +16899,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E49" t="s">
         <v>723</v>
@@ -16845,13 +16934,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E50" t="s">
         <v>724</v>
@@ -16914,49 +17003,49 @@
         <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>665</v>
@@ -16970,13 +17059,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -17044,13 +17133,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E3">
         <v>104</v>
@@ -17118,13 +17207,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E4">
         <v>105</v>
@@ -17192,13 +17281,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E5">
         <v>114</v>
@@ -17266,13 +17355,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E6">
         <v>115</v>
@@ -17340,13 +17429,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E7">
         <v>125</v>
@@ -17414,13 +17503,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E8">
         <v>126</v>
@@ -17488,13 +17577,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E9">
         <v>127</v>
@@ -17562,13 +17651,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E10">
         <v>135</v>
@@ -17636,13 +17725,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E11">
         <v>136</v>
@@ -17710,13 +17799,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E12">
         <v>147</v>
@@ -17809,70 +17898,70 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>729</v>
@@ -17881,28 +17970,28 @@
         <v>730</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>788</v>
@@ -17911,58 +18000,58 @@
         <v>789</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
@@ -17970,16 +18059,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18137,16 +18226,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -18304,16 +18393,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -18471,16 +18560,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -18638,16 +18727,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -18805,16 +18894,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -18972,16 +19061,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -19139,16 +19228,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -19306,16 +19395,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19473,16 +19562,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -19640,16 +19729,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -19832,109 +19921,109 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -19942,16 +20031,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
         <v>595</v>
@@ -20049,16 +20138,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>615</v>
@@ -20156,16 +20245,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4" t="s">
         <v>616</v>
@@ -20263,16 +20352,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5" t="s">
         <v>618</v>
@@ -20370,16 +20459,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6" t="s">
         <v>619</v>
@@ -20477,16 +20566,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7" t="s">
         <v>623</v>
@@ -20584,16 +20673,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8" t="s">
         <v>624</v>
@@ -20691,16 +20780,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9" t="s">
         <v>625</v>
@@ -20798,16 +20887,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10" t="s">
         <v>628</v>
@@ -20905,16 +20994,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11" t="s">
         <v>629</v>
@@ -21012,16 +21101,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12" t="s">
         <v>630</v>
@@ -21144,16 +21233,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -21161,16 +21250,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -21187,16 +21276,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -21213,16 +21302,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -21239,16 +21328,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -21265,16 +21354,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E6" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -21291,16 +21380,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -21317,16 +21406,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -21343,16 +21432,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E9" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -21369,16 +21458,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E10" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -21395,16 +21484,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E11" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -21421,16 +21510,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E12" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -49896,7 +49985,7 @@
         <v>691</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>691</v>
@@ -49985,7 +50074,7 @@
         <v>692</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>692</v>
@@ -50252,7 +50341,7 @@
         <v>695</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>695</v>
@@ -51765,7 +51854,7 @@
         <v>712</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>712</v>
@@ -51854,7 +51943,7 @@
         <v>713</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>713</v>
@@ -51943,7 +52032,7 @@
         <v>714</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>714</v>
@@ -52032,7 +52121,7 @@
         <v>715</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>715</v>
@@ -52210,7 +52299,7 @@
         <v>717</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>717</v>
@@ -52299,7 +52388,7 @@
         <v>718</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>718</v>
@@ -52744,7 +52833,7 @@
         <v>723</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>723</v>
@@ -52833,7 +52922,7 @@
         <v>724</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>724</v>
@@ -55006,7 +55095,7 @@
         <v>781</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>781</v>
